--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
   </si>
   <si>
     <t>face/face015.png</t>
   </si>
   <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
     <t>car/car005.png</t>
   </si>
   <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
     <t>dog/dog001.png</t>
   </si>
   <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
   </si>
   <si>
     <t>face/face023.png</t>
   </si>
   <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
     <t>car/car030.png</t>
   </si>
   <si>
-    <t>dog/dog027.png</t>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
   </si>
   <si>
     <t>car/car026.png</t>
   </si>
   <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
   </si>
   <si>
     <t>face/face026.png</t>
   </si>
   <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
     <t>face/face028.png</t>
   </si>
   <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
   </si>
   <si>
     <t>face/face036.png</t>
   </si>
   <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
   </si>
   <si>
     <t>car/car039.png</t>
   </si>
   <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
     <t>dog/dog037.png</t>
   </si>
   <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
   </si>
   <si>
     <t>face/face050.png</t>
   </si>
   <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
     <t>flower/flower059.png</t>
   </si>
   <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
     <t>flower/flower060.png</t>
   </si>
   <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
   </si>
   <si>
     <t>flower/flower062.png</t>
   </si>
   <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
   </si>
   <si>
     <t>face/face048.png</t>
   </si>
   <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
     <t>car/car061.png</t>
   </si>
   <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
     <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.530416688886566</v>
+        <v>1.524430882051528</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.502299669901477</v>
+        <v>1.264369766818418</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.4418998694288</v>
+        <v>1.402602171310949</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.402650743210649</v>
+        <v>1.19648250221782</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.280824768451261</v>
+        <v>1.431230855442755</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.590534167680611</v>
+        <v>1.247962932693616</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.504649781168035</v>
+        <v>1.60691015726313</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.425248962612671</v>
+        <v>1.449200012992032</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.322323387720976</v>
+        <v>1.633323665001178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.350046420454238</v>
+        <v>1.586132118608373</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.339204161725023</v>
+        <v>1.429732982569992</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.604213733630022</v>
+        <v>1.320240490907872</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.47728876058615</v>
+        <v>1.350532830357608</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.484274310575372</v>
+        <v>1.70650945762542</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.760267965003355</v>
+        <v>1.750587337596726</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.498624450143774</v>
+        <v>1.478563940340733</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.599565159000854</v>
+        <v>1.611187171950221</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.517279287861914</v>
+        <v>1.328866121674708</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.260660347664304</v>
+        <v>1.809112335350292</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.612266639426821</v>
+        <v>1.540641592326393</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.688267540832726</v>
+        <v>1.513208540284174</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.403198393480713</v>
+        <v>1.409123480525642</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.526986222588002</v>
+        <v>1.540603280600342</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.495615947952955</v>
+        <v>1.54736946840523</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.512275122991306</v>
+        <v>1.702418519463026</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.710240605996705</v>
+        <v>1.441130391688421</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.500700979477992</v>
+        <v>1.468880104320591</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.482531902522949</v>
+        <v>1.627615520333187</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.474263894708107</v>
+        <v>1.467381989753991</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.709563154031807</v>
+        <v>1.347909865927265</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.43896387429913</v>
+        <v>1.582455740373758</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.444644951248746</v>
+        <v>1.294835580124984</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.467970095161059</v>
+        <v>1.393883322312171</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.668466223619921</v>
+        <v>1.639698374778177</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.576146523315714</v>
+        <v>1.579124484895647</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.629502953861572</v>
+        <v>1.826414719182313</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.455238172868195</v>
+        <v>1.369686911448243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.612540289308025</v>
+        <v>1.543702999221982</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.512841092398553</v>
+        <v>1.43384675447842</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.507527681052032</v>
+        <v>1.595766485513453</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.444028395835071</v>
+        <v>1.384658511239059</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.622958563749896</v>
+        <v>1.58395422519783</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.681175566969572</v>
+        <v>1.513294721131105</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.66236029137741</v>
+        <v>1.499567686644302</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.667456548099848</v>
+        <v>1.626858014814039</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.249433119313646</v>
+        <v>1.327678637476103</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.565746620964602</v>
+        <v>1.428245787210996</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.596380664780567</v>
+        <v>1.44271660719951</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.262837712080926</v>
+        <v>1.562987908356948</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.578735307827748</v>
+        <v>1.447456358617906</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.757599951417684</v>
+        <v>1.703561820115536</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.735790219661003</v>
+        <v>1.510419965704303</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.731530130847895</v>
+        <v>1.325839147838797</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.489214467959213</v>
+        <v>1.671420322566636</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.459789548703132</v>
+        <v>1.636336185832531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.480397641678935</v>
+        <v>1.83495571345913</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.666848640051982</v>
+        <v>1.547438347788474</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.827357701958512</v>
+        <v>1.663139247760304</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.273608650817863</v>
+        <v>1.365086167369251</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.736131521456028</v>
+        <v>1.441974809251167</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.618526912257092</v>
+        <v>1.398302711915611</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.456056382196638</v>
+        <v>1.417233444211951</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.472024723542823</v>
+        <v>1.629994176154074</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.791355192901488</v>
+        <v>1.649236262608743</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1.578282426350582</v>
+        <v>1.70206583062796</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.585585185616064</v>
+        <v>1.541764611338408</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.406708179961687</v>
+        <v>1.397912363576187</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.483722481483712</v>
+        <v>1.564344541028702</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.455985594172671</v>
+        <v>1.779797924561628</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.721522794324847</v>
+        <v>1.367291711085298</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.649938047423439</v>
+        <v>1.795903863251948</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.625718711857814</v>
+        <v>1.383527563580595</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.424804877614176</v>
+        <v>1.3798833062461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.495823428303593</v>
+        <v>1.368448379582077</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.532671584893373</v>
+        <v>1.425165864003155</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.373988344588932</v>
+        <v>1.807001392116324</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.449781412496281</v>
+        <v>1.492105992555817</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.372882746070167</v>
+        <v>1.181407221948793</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.369635594819097</v>
+        <v>1.516367480251731</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.604405134504006</v>
+        <v>1.460599250244106</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.571024687357564</v>
+        <v>1.566875106444716</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.32904314480606</v>
+        <v>1.43185109959915</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.343096553360264</v>
+        <v>1.458523254791919</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.414549893463185</v>
+        <v>1.310798221134348</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.522967028314105</v>
+        <v>1.564651051630469</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.4003735421561</v>
+        <v>1.510311126175667</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.490000949881264</v>
+        <v>1.661083024229083</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.317361663245344</v>
+        <v>1.608130412261231</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.441691762239184</v>
+        <v>1.208330153881368</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.775447916484121</v>
+        <v>1.458245038488429</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.413667507932661</v>
+        <v>1.103730395279685</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.522981873412292</v>
+        <v>1.388178950122039</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.562120443673852</v>
+        <v>1.42236089167588</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.508689505525268</v>
+        <v>1.704004578812462</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.538095381348624</v>
+        <v>1.335795202339939</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.37221495094902</v>
+        <v>1.510929723082309</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.520011788280356</v>
+        <v>1.59744106675565</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.70056842052976</v>
+        <v>1.599743671208393</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.520673267707892</v>
+        <v>1.450483403200903</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.514749574337425</v>
+        <v>1.372012833868423</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.505601993492569</v>
+        <v>1.32454916413219</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.450191289510905</v>
+        <v>1.491971834002318</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.585249842510857</v>
+        <v>1.213435695513248</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.068383429571484</v>
+        <v>1.461551193494905</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.786523928718718</v>
+        <v>1.636392882380524</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.141303722038628</v>
+        <v>1.440531666063389</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.121578356449518</v>
+        <v>1.329303693960201</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.322328186668914</v>
+        <v>1.249177948806713</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.557033344591349</v>
+        <v>1.554048919691065</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.538614796968252</v>
+        <v>1.690650010343046</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.427660812651603</v>
+        <v>1.429844760483027</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.526526487025157</v>
+        <v>1.34244286413476</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.459082031640909</v>
+        <v>1.681057017089465</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.646522557760487</v>
+        <v>1.418153552096635</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.57565151968897</v>
+        <v>1.352858855226457</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.499799891958723</v>
+        <v>1.602459392962915</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.641920037741114</v>
+        <v>1.699870227792103</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.472602766830607</v>
+        <v>1.561358365391236</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.51001930767208</v>
+        <v>1.345469066542755</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.311853797571971</v>
+        <v>1.588612109270252</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.444303952037683</v>
+        <v>1.589912104228016</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.587232830643588</v>
+        <v>1.536686860463446</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.393359478305758</v>
+        <v>1.754930093957135</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.450927978663247</v>
+        <v>1.483703079420171</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.505383533398907</v>
+        <v>1.459028213963712</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.677859885681552</v>
+        <v>1.364348016495489</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.779066801769948</v>
+        <v>1.723404131902369</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.497899066577751</v>
+        <v>1.454350906962588</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.859945820120129</v>
+        <v>1.582500759075331</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.58058500972664</v>
+        <v>1.36879471050905</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.49559306939332</v>
+        <v>1.504924932823787</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.677610808978589</v>
+        <v>1.394723375488287</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.330984468603975</v>
+        <v>1.183961945869082</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.585919253232312</v>
+        <v>1.463715113448877</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.507475949029171</v>
+        <v>1.451709051143777</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.386573495241923</v>
+        <v>1.588073388075146</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.461472694217623</v>
+        <v>1.504272912909997</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.370490734025873</v>
+        <v>1.470176934322038</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.504297254131691</v>
+        <v>1.436469551544117</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.73091932164779</v>
+        <v>1.700945061595491</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.664598880792467</v>
+        <v>1.463329545364691</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.455377899253475</v>
+        <v>1.253118004317802</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.353142464247664</v>
+        <v>1.348140507449922</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.710836886282343</v>
+        <v>1.753319227755426</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.439087377497284</v>
+        <v>1.410207786804369</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.375574526427855</v>
+        <v>1.397276801090553</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.643535419913161</v>
+        <v>1.448666136848573</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.347637306738969</v>
+        <v>1.602499157549606</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.467200965897289</v>
+        <v>1.737503453887811</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.41574138685017</v>
+        <v>1.508167172274576</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.644314058467798</v>
+        <v>1.545271867413305</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.61623953675661</v>
+        <v>1.491145250903175</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.447494691173942</v>
+        <v>1.558260051608001</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.491669957524385</v>
+        <v>1.591104077673906</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.76373472334624</v>
+        <v>1.395646418452579</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.324632579737119</v>
+        <v>1.55437016265522</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.461789208692259</v>
+        <v>1.572542774640247</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.434135823709517</v>
+        <v>1.670274113317669</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.593254638774698</v>
+        <v>1.248139804731172</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.401560219080333</v>
+        <v>1.677369141853294</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.421867678651856</v>
+        <v>1.454128905826406</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.561392922569705</v>
+        <v>1.595263414351628</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.654493345471027</v>
+        <v>1.588986065857782</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.641377569423664</v>
+        <v>1.639482728920679</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.546919139843965</v>
+        <v>1.572495384050191</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.578120335700303</v>
+        <v>1.586358794080663</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.589453124704894</v>
+        <v>1.711032776716681</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.333983882774866</v>
+        <v>1.41820284777062</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.487912839240148</v>
+        <v>1.650297865737629</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.575437801149308</v>
+        <v>1.610431427283434</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.396603565056449</v>
+        <v>1.374260315153833</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.531525351106449</v>
+        <v>1.585559857743531</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.545920977686098</v>
+        <v>1.59612197849339</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.37079710200391</v>
+        <v>1.482657974854172</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.637143009667324</v>
+        <v>1.308931411323995</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.665097256895476</v>
+        <v>1.748159067739617</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.367494366901352</v>
+        <v>1.360048887571559</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.370004495462648</v>
+        <v>1.82446183962616</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.655969373339711</v>
+        <v>1.473139264743983</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.481439744491212</v>
+        <v>1.41042248677736</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.940689518216676</v>
+        <v>1.668616362290269</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.561165086855661</v>
+        <v>1.366166263307628</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.535429112487731</v>
+        <v>1.774375058841554</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.41668839949202</v>
+        <v>1.407583796277522</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.806990515997341</v>
+        <v>1.52320820227592</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.478452923037604</v>
+        <v>1.505039158616375</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.703048099568223</v>
+        <v>1.233827832582295</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.621906814133645</v>
+        <v>1.293336231267258</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.523093159299345</v>
+        <v>1.218830787345561</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.437635308687775</v>
+        <v>1.641218819931568</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.617508984448772</v>
+        <v>1.281523994209498</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.252229906157657</v>
+        <v>1.458435961625498</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.797055062221043</v>
+        <v>1.650969268578803</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.555747714122333</v>
+        <v>1.164154132966481</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.414216529750512</v>
+        <v>1.68916626113754</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.59665076529447</v>
+        <v>1.427505073200908</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.372133742205762</v>
+        <v>1.431952651214795</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.356327183154816</v>
+        <v>1.691050972138801</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.148080941141153</v>
+        <v>1.580768492086638</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.60544656045036</v>
+        <v>1.388837884498872</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.308252056942475</v>
+        <v>1.402718278795345</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.484199318436426</v>
+        <v>1.4507294350506</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.853310792057437</v>
+        <v>1.45387553151619</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.540235910990705</v>
+        <v>1.485953764814778</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.942301937508605</v>
+        <v>1.878416138873458</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.477079078274049</v>
+        <v>1.347661767959062</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.475910590563583</v>
+        <v>1.73419921125115</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.246256910333125</v>
+        <v>1.526684329939911</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.526307680472085</v>
+        <v>1.540150811787063</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.364242451298461</v>
+        <v>1.741074184219205</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.565272982243495</v>
+        <v>1.247000523812805</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.771374266846877</v>
+        <v>1.561420325156055</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.317176617368996</v>
+        <v>1.188003556221146</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.316049147130303</v>
+        <v>1.559522887715296</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.724588716650434</v>
+        <v>1.512444846768774</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.335845077649162</v>
+        <v>1.531778041936466</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.566685594921111</v>
+        <v>1.118592399550771</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.492333383315876</v>
+        <v>1.3968484085229</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.370073142216305</v>
+        <v>1.57138101001865</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.090023686746251</v>
+        <v>1.394873768131157</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.776074011817058</v>
+        <v>1.468593383794734</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.58960896309449</v>
+        <v>1.442762637537002</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.372339230450837</v>
+        <v>1.412074763407613</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.749310019585331</v>
+        <v>1.648492594287533</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.368761749286965</v>
+        <v>1.571053756182362</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.327512730707638</v>
+        <v>1.346134272262016</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.334511652625594</v>
+        <v>1.825994156390794</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.604043894200341</v>
+        <v>1.793429312164801</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.47449295136443</v>
+        <v>1.421262369907703</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.459894083301253</v>
+        <v>1.578410711437119</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.430504445201938</v>
+        <v>1.699209573361193</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.588568704471509</v>
+        <v>1.672149740311504</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.374143316384912</v>
+        <v>1.520032275971696</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.321231252181928</v>
+        <v>1.27773350603404</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.302290821035639</v>
+        <v>1.546756387176619</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.812792331114663</v>
+        <v>1.433839309738101</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.639383269648886</v>
+        <v>1.445768121287916</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.426175956254196</v>
+        <v>1.703542337325606</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.514152352805378</v>
+        <v>1.644728155875878</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.518655351136909</v>
+        <v>1.709947017247691</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.350868075936138</v>
+        <v>1.532426355650294</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.181724081705993</v>
+        <v>1.276107255837668</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.707464751872827</v>
+        <v>1.796932419661301</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.293504851788443</v>
+        <v>1.62779879790841</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.372008633763584</v>
+        <v>1.714656735637442</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.503050073057459</v>
+        <v>1.400643610872625</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.450725915528465</v>
+        <v>1.439791597847786</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.459998285195462</v>
+        <v>1.32646179376981</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.576619412965163</v>
+        <v>1.452150578776432</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.439399691566453</v>
+        <v>1.185122692169978</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.511296126539886</v>
+        <v>1.391872347728732</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.553186562444016</v>
+        <v>1.635467550619194</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.790740851101257</v>
+        <v>1.431614753995606</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.516086460653374</v>
+        <v>1.46767903435531</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.633001702673606</v>
+        <v>1.582404450938089</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.518201708539995</v>
+        <v>1.42356464001445</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.524430882051528</v>
+        <v>1.470499302928133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.264369766818418</v>
+        <v>1.549345423549649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.402602171310949</v>
+        <v>1.315801869245307</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.19648250221782</v>
+        <v>1.806897083051604</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.431230855442755</v>
+        <v>1.610298311249009</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.247962932693616</v>
+        <v>1.343003114978396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.60691015726313</v>
+        <v>1.560934419742168</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.449200012992032</v>
+        <v>1.258560516287914</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.633323665001178</v>
+        <v>1.329216676744889</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.586132118608373</v>
+        <v>1.540374883380631</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.429732982569992</v>
+        <v>1.65765936887205</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.320240490907872</v>
+        <v>1.397341489303244</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.350532830357608</v>
+        <v>1.444737699252967</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.70650945762542</v>
+        <v>1.637966081675339</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.750587337596726</v>
+        <v>1.570968940875504</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.478563940340733</v>
+        <v>1.472440740619827</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.611187171950221</v>
+        <v>1.468892810391427</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.328866121674708</v>
+        <v>1.469384896665335</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.809112335350292</v>
+        <v>1.256690856903463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.540641592326393</v>
+        <v>1.504935437177962</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.513208540284174</v>
+        <v>1.538136842605299</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.409123480525642</v>
+        <v>1.494980661291458</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.540603280600342</v>
+        <v>1.425187962888267</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.54736946840523</v>
+        <v>1.612383617699254</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.702418519463026</v>
+        <v>1.446923365330739</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.441130391688421</v>
+        <v>1.583207057242572</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.468880104320591</v>
+        <v>1.279529565360605</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.627615520333187</v>
+        <v>1.374064160055799</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.467381989753991</v>
+        <v>1.679734116945858</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.347909865927265</v>
+        <v>1.698518791995946</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.582455740373758</v>
+        <v>1.677296900853888</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.294835580124984</v>
+        <v>1.508083983120817</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.393883322312171</v>
+        <v>1.269816540834674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.639698374778177</v>
+        <v>1.249199269345405</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.579124484895647</v>
+        <v>1.671702429413878</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.826414719182313</v>
+        <v>1.19889814109693</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.369686911448243</v>
+        <v>1.468332221679753</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.543702999221982</v>
+        <v>1.473202216068836</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.43384675447842</v>
+        <v>1.525827044192265</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.595766485513453</v>
+        <v>1.655098762961148</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.384658511239059</v>
+        <v>1.514822832461374</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.58395422519783</v>
+        <v>1.496525589707663</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.513294721131105</v>
+        <v>1.499882820615271</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.499567686644302</v>
+        <v>1.832524095237572</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.626858014814039</v>
+        <v>1.363402508752485</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.327678637476103</v>
+        <v>1.781761041285436</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.428245787210996</v>
+        <v>1.398936897370679</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.44271660719951</v>
+        <v>1.435379083209511</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.562987908356948</v>
+        <v>1.381810385357016</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.447456358617906</v>
+        <v>1.762555824230434</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.703561820115536</v>
+        <v>1.728813073486514</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.510419965704303</v>
+        <v>1.398585814707843</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.325839147838797</v>
+        <v>1.071810368143514</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.671420322566636</v>
+        <v>1.453949010349287</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.636336185832531</v>
+        <v>1.656906530144053</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.83495571345913</v>
+        <v>1.32024454052593</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.547438347788474</v>
+        <v>1.354916821542188</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.663139247760304</v>
+        <v>1.564005100632709</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.365086167369251</v>
+        <v>1.758853343209065</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.441974809251167</v>
+        <v>1.430745063213444</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.398302711915611</v>
+        <v>1.372175895163559</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.417233444211951</v>
+        <v>1.551121763963371</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.629994176154074</v>
+        <v>1.398389193484009</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.649236262608743</v>
+        <v>1.294223532627303</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.70206583062796</v>
+        <v>1.87382835430102</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.541764611338408</v>
+        <v>1.554279468904873</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.397912363576187</v>
+        <v>1.41766653722544</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.564344541028702</v>
+        <v>1.562489319404212</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.779797924561628</v>
+        <v>1.363446283163996</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.367291711085298</v>
+        <v>1.459945120052843</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.795903863251948</v>
+        <v>1.561294488421846</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.383527563580595</v>
+        <v>1.626623616450819</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.3798833062461</v>
+        <v>1.336547848956706</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.368448379582077</v>
+        <v>1.468237425304705</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.425165864003155</v>
+        <v>1.506590516957844</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.807001392116324</v>
+        <v>1.273767982139962</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.492105992555817</v>
+        <v>1.580950166999455</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.181407221948793</v>
+        <v>1.321373017774966</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.516367480251731</v>
+        <v>1.432158084872528</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.460599250244106</v>
+        <v>1.683082430161657</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.566875106444716</v>
+        <v>1.194741104237945</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.43185109959915</v>
+        <v>1.441550971059093</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.458523254791919</v>
+        <v>1.692383790365076</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.310798221134348</v>
+        <v>1.646823271398072</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.564651051630469</v>
+        <v>1.703343152334815</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.510311126175667</v>
+        <v>1.4842898019406</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.661083024229083</v>
+        <v>1.350439222245078</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.608130412261231</v>
+        <v>1.488890602704928</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.208330153881368</v>
+        <v>1.526558245459412</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.458245038488429</v>
+        <v>1.720603361824393</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.103730395279685</v>
+        <v>1.780653400044782</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.388178950122039</v>
+        <v>1.651021360512115</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.42236089167588</v>
+        <v>1.622194809318412</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.704004578812462</v>
+        <v>1.666571072815204</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.335795202339939</v>
+        <v>1.503915831665182</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.510929723082309</v>
+        <v>1.667767965504845</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.59744106675565</v>
+        <v>1.688618321144381</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.599743671208393</v>
+        <v>1.222927117453981</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.450483403200903</v>
+        <v>1.760061156849515</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.372012833868423</v>
+        <v>1.608040941209572</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.32454916413219</v>
+        <v>1.301874775932006</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.491971834002318</v>
+        <v>1.562143196843036</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.213435695513248</v>
+        <v>1.404665155725035</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.461551193494905</v>
+        <v>1.337322657226104</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.636392882380524</v>
+        <v>1.519181023374528</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.440531666063389</v>
+        <v>1.549322735182263</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.329303693960201</v>
+        <v>1.339721193842019</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.249177948806713</v>
+        <v>1.373684647261792</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.554048919691065</v>
+        <v>1.451138572856363</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.690650010343046</v>
+        <v>1.345986841088705</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.429844760483027</v>
+        <v>1.69324933810694</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.34244286413476</v>
+        <v>1.622712517221935</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.681057017089465</v>
+        <v>1.436192446872964</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.418153552096635</v>
+        <v>1.435831168610218</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.352858855226457</v>
+        <v>1.622276104956437</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.602459392962915</v>
+        <v>1.885140020055395</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.699870227792103</v>
+        <v>1.514759007948865</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.561358365391236</v>
+        <v>1.180687927009455</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.345469066542755</v>
+        <v>1.417499039939973</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.588612109270252</v>
+        <v>1.648994784917947</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1.589912104228016</v>
+        <v>1.342831279981397</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.536686860463446</v>
+        <v>1.283712722882488</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.754930093957135</v>
+        <v>1.305217367886234</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.483703079420171</v>
+        <v>1.460657470932316</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.459028213963712</v>
+        <v>1.523560307246477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.364348016495489</v>
+        <v>1.205567421421534</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.723404131902369</v>
+        <v>1.498836348338925</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.454350906962588</v>
+        <v>1.553754298836394</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.582500759075331</v>
+        <v>1.867767733089422</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.36879471050905</v>
+        <v>1.525156082545834</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.504924932823787</v>
+        <v>1.366759830838583</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.394723375488287</v>
+        <v>1.554458276519606</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.183961945869082</v>
+        <v>1.400370872872475</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.463715113448877</v>
+        <v>1.280131018665132</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.451709051143777</v>
+        <v>1.277922587729423</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.588073388075146</v>
+        <v>1.46754897907969</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.504272912909997</v>
+        <v>1.373167351849011</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.470176934322038</v>
+        <v>1.585706441658126</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.436469551544117</v>
+        <v>1.80864641806373</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.700945061595491</v>
+        <v>1.495013253307596</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.463329545364691</v>
+        <v>1.450474976127033</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.253118004317802</v>
+        <v>1.496926060598278</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.348140507449922</v>
+        <v>1.567432118322467</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.753319227755426</v>
+        <v>1.546987952843234</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.410207786804369</v>
+        <v>1.556923089725418</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.397276801090553</v>
+        <v>1.290267959799596</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.448666136848573</v>
+        <v>1.684644771564215</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.602499157549606</v>
+        <v>1.449560925180816</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.737503453887811</v>
+        <v>1.582108192494879</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.508167172274576</v>
+        <v>1.72586232318752</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.545271867413305</v>
+        <v>1.625684409397747</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.491145250903175</v>
+        <v>1.5378142278708</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.558260051608001</v>
+        <v>1.650219001777877</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.591104077673906</v>
+        <v>1.478471408208274</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.395646418452579</v>
+        <v>1.506102470085498</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.55437016265522</v>
+        <v>1.383853736826409</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.572542774640247</v>
+        <v>1.34077109727345</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.670274113317669</v>
+        <v>1.475416084670843</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.248139804731172</v>
+        <v>1.699565704843008</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.677369141853294</v>
+        <v>1.537762555506136</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.454128905826406</v>
+        <v>1.515427740790674</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.595263414351628</v>
+        <v>1.520271390446525</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.588986065857782</v>
+        <v>1.589446121549619</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.639482728920679</v>
+        <v>1.529108383013287</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.572495384050191</v>
+        <v>1.542830972404574</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.586358794080663</v>
+        <v>1.492111315678177</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.711032776716681</v>
+        <v>1.511164342709563</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.41820284777062</v>
+        <v>1.53906428761008</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.650297865737629</v>
+        <v>1.363769498120069</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.610431427283434</v>
+        <v>1.429169595511956</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.374260315153833</v>
+        <v>1.433100119346119</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.585559857743531</v>
+        <v>1.362197095950858</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.59612197849339</v>
+        <v>1.79497207607155</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.482657974854172</v>
+        <v>1.489625021494554</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.308931411323995</v>
+        <v>1.409092899495482</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.748159067739617</v>
+        <v>1.640308622619908</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.360048887571559</v>
+        <v>1.42532323010706</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.82446183962616</v>
+        <v>1.429930789893084</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.473139264743983</v>
+        <v>1.444267791841205</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.41042248677736</v>
+        <v>1.205234603141099</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.668616362290269</v>
+        <v>1.593347868388643</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.366166263307628</v>
+        <v>1.729187959060261</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.774375058841554</v>
+        <v>1.673011854270506</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.407583796277522</v>
+        <v>1.518874441168644</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.52320820227592</v>
+        <v>1.794027424847616</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.505039158616375</v>
+        <v>1.323555511200288</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.233827832582295</v>
+        <v>1.5085054527524</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.293336231267258</v>
+        <v>1.489068469045131</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.218830787345561</v>
+        <v>1.347939507067893</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.641218819931568</v>
+        <v>1.383361490939122</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.281523994209498</v>
+        <v>1.504658385010974</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.458435961625498</v>
+        <v>1.429284475272624</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.650969268578803</v>
+        <v>1.498603807067006</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.164154132966481</v>
+        <v>1.633707101765995</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.68916626113754</v>
+        <v>1.561407494691639</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.427505073200908</v>
+        <v>1.590077571810981</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.431952651214795</v>
+        <v>1.464308028089429</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.691050972138801</v>
+        <v>1.624339259411736</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.580768492086638</v>
+        <v>1.538515862550643</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.388837884498872</v>
+        <v>1.413973154260403</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.402718278795345</v>
+        <v>1.63460307343169</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.4507294350506</v>
+        <v>1.527621508470028</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.45387553151619</v>
+        <v>1.540150967841765</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.485953764814778</v>
+        <v>1.173553613015264</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.878416138873458</v>
+        <v>1.495908928451458</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.347661767959062</v>
+        <v>1.358386781076899</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.73419921125115</v>
+        <v>1.356476483769271</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.526684329939911</v>
+        <v>1.65153892412812</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.540150811787063</v>
+        <v>1.443490506250476</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.741074184219205</v>
+        <v>1.214043742434652</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.247000523812805</v>
+        <v>1.165330862245912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.561420325156055</v>
+        <v>1.673550562888735</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.188003556221146</v>
+        <v>1.568149822316005</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.559522887715296</v>
+        <v>1.487163803930582</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.512444846768774</v>
+        <v>1.508579042788419</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.531778041936466</v>
+        <v>1.519010827260078</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.118592399550771</v>
+        <v>1.514232366059495</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.3968484085229</v>
+        <v>1.473919977060416</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.57138101001865</v>
+        <v>1.365502297383131</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1.394873768131157</v>
+        <v>1.357886611890235</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.468593383794734</v>
+        <v>1.346193840354853</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.442762637537002</v>
+        <v>1.373768733777248</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.412074763407613</v>
+        <v>1.344473663494835</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.648492594287533</v>
+        <v>1.495545652233247</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.571053756182362</v>
+        <v>1.264847416399848</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.346134272262016</v>
+        <v>1.352665149188476</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.825994156390794</v>
+        <v>1.242187012439479</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.793429312164801</v>
+        <v>1.451068554845889</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.421262369907703</v>
+        <v>1.493476628834101</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.578410711437119</v>
+        <v>1.353440900087518</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.699209573361193</v>
+        <v>1.384613953299072</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.672149740311504</v>
+        <v>1.656784616881206</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.520032275971696</v>
+        <v>1.665644696818362</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.27773350603404</v>
+        <v>1.395368080811306</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.546756387176619</v>
+        <v>1.627273159287413</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.433839309738101</v>
+        <v>1.527989730253776</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.445768121287916</v>
+        <v>1.661825968073402</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.703542337325606</v>
+        <v>1.692863582556878</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.644728155875878</v>
+        <v>1.403091930769295</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.709947017247691</v>
+        <v>1.530015393185495</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.532426355650294</v>
+        <v>1.498430265936906</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.276107255837668</v>
+        <v>1.578771902081899</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.796932419661301</v>
+        <v>1.75983006764276</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.62779879790841</v>
+        <v>1.388185438566949</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.714656735637442</v>
+        <v>1.236101719299094</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.400643610872625</v>
+        <v>1.560854075609554</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.439791597847786</v>
+        <v>1.44645281895964</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.32646179376981</v>
+        <v>1.627603007897656</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.452150578776432</v>
+        <v>1.445244421595724</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.185122692169978</v>
+        <v>1.343788953932973</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.391872347728732</v>
+        <v>1.472915100131894</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.635467550619194</v>
+        <v>1.315045726802834</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.431614753995606</v>
+        <v>1.511405824022011</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.46767903435531</v>
+        <v>1.382141557822529</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.582404450938089</v>
+        <v>1.508335537691736</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.42356464001445</v>
+        <v>1.629381623454246</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>flower/flower037.jpg</t>
   </si>
   <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.470499302928133</v>
+        <v>1.283942388759622</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.549345423549649</v>
+        <v>1.528052904538875</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.315801869245307</v>
+        <v>1.489932690465424</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.806897083051604</v>
+        <v>1.490656052922481</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.610298311249009</v>
+        <v>1.721220284029441</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.343003114978396</v>
+        <v>1.365874853996369</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.560934419742168</v>
+        <v>1.644404002348764</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.258560516287914</v>
+        <v>1.701835313354331</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.329216676744889</v>
+        <v>1.389195617419678</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.540374883380631</v>
+        <v>1.318767803097594</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.65765936887205</v>
+        <v>1.624750143705569</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.397341489303244</v>
+        <v>1.478680967306448</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.444737699252967</v>
+        <v>1.717196169020189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.637966081675339</v>
+        <v>1.601707719885097</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.570968940875504</v>
+        <v>1.659445829690449</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.472440740619827</v>
+        <v>1.600650364154143</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.468892810391427</v>
+        <v>1.546003200092291</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.469384896665335</v>
+        <v>1.658739251227384</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.256690856903463</v>
+        <v>1.457444081635595</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.504935437177962</v>
+        <v>1.362084169936357</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.538136842605299</v>
+        <v>1.54842768329401</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.494980661291458</v>
+        <v>1.422160487487017</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.425187962888267</v>
+        <v>1.64913982028416</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.612383617699254</v>
+        <v>1.302859827933637</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.446923365330739</v>
+        <v>1.773670690460591</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.583207057242572</v>
+        <v>1.347218267240295</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.279529565360605</v>
+        <v>1.277364129487998</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.374064160055799</v>
+        <v>1.555792169935434</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.679734116945858</v>
+        <v>1.475651697770765</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.698518791995946</v>
+        <v>1.50456376636964</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.677296900853888</v>
+        <v>1.652053449810412</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.508083983120817</v>
+        <v>1.400646555809606</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.269816540834674</v>
+        <v>1.560240703967812</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1.249199269345405</v>
+        <v>1.555016683575108</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.671702429413878</v>
+        <v>1.463700995899311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.19889814109693</v>
+        <v>1.475048857296108</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.468332221679753</v>
+        <v>1.389170082365243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.473202216068836</v>
+        <v>1.572281125767461</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.525827044192265</v>
+        <v>1.637846638759538</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1.655098762961148</v>
+        <v>1.638252568586845</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.514822832461374</v>
+        <v>1.448150434807725</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.496525589707663</v>
+        <v>1.392917488323687</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.499882820615271</v>
+        <v>1.385159443621209</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.832524095237572</v>
+        <v>1.488096809411293</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.363402508752485</v>
+        <v>1.475005523254126</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.781761041285436</v>
+        <v>1.347636934900396</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.398936897370679</v>
+        <v>1.593729397069815</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.435379083209511</v>
+        <v>1.752547300524194</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.381810385357016</v>
+        <v>1.216958265547414</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.762555824230434</v>
+        <v>1.475747470729966</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.728813073486514</v>
+        <v>1.663749270580469</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.398585814707843</v>
+        <v>1.600897819564491</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.071810368143514</v>
+        <v>1.690885665084853</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.453949010349287</v>
+        <v>1.685920363950219</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.656906530144053</v>
+        <v>1.419317545352705</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.32024454052593</v>
+        <v>1.284214549154062</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.354916821542188</v>
+        <v>1.351986946572351</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.564005100632709</v>
+        <v>1.5073954975163</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.758853343209065</v>
+        <v>1.699954765211828</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.430745063213444</v>
+        <v>1.747001891613229</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.372175895163559</v>
+        <v>1.594844624736131</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.551121763963371</v>
+        <v>1.590354352576162</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.398389193484009</v>
+        <v>1.261000030388974</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.294223532627303</v>
+        <v>1.467462725169169</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.87382835430102</v>
+        <v>1.605472773543409</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.554279468904873</v>
+        <v>1.44163178064635</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.41766653722544</v>
+        <v>1.542085478817557</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.562489319404212</v>
+        <v>1.595882738947284</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.363446283163996</v>
+        <v>1.376184586402934</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.459945120052843</v>
+        <v>1.60535882899094</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1.561294488421846</v>
+        <v>1.471648778721406</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.626623616450819</v>
+        <v>1.360740152154917</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.336547848956706</v>
+        <v>1.409141096584624</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.468237425304705</v>
+        <v>1.640055128514742</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.506590516957844</v>
+        <v>1.772449941599901</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.273767982139962</v>
+        <v>1.224376564050349</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.580950166999455</v>
+        <v>1.543116151428798</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.321373017774966</v>
+        <v>1.415828666597357</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.432158084872528</v>
+        <v>1.825392523809518</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.683082430161657</v>
+        <v>1.38230867458192</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.194741104237945</v>
+        <v>1.750203079573115</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.441550971059093</v>
+        <v>1.310486972949404</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.692383790365076</v>
+        <v>1.620449332001638</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.646823271398072</v>
+        <v>1.594326501660227</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.703343152334815</v>
+        <v>1.308178375170315</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.4842898019406</v>
+        <v>1.551926377570927</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.350439222245078</v>
+        <v>1.424229014392617</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.488890602704928</v>
+        <v>1.472730396270437</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.526558245459412</v>
+        <v>1.347395596826629</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.720603361824393</v>
+        <v>1.192862809290123</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.780653400044782</v>
+        <v>1.561597651620488</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.651021360512115</v>
+        <v>1.37771116063637</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.622194809318412</v>
+        <v>1.614312240898139</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.666571072815204</v>
+        <v>1.692669171175171</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.503915831665182</v>
+        <v>1.304849945207691</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.667767965504845</v>
+        <v>1.715391881717982</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.688618321144381</v>
+        <v>1.151054957748444</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.222927117453981</v>
+        <v>1.407874004439328</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.760061156849515</v>
+        <v>1.629409311887012</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.608040941209572</v>
+        <v>1.380938919295571</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.301874775932006</v>
+        <v>1.550063537575658</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.562143196843036</v>
+        <v>1.636363070575986</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.404665155725035</v>
+        <v>1.489617343501042</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.337322657226104</v>
+        <v>1.347121765169704</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.519181023374528</v>
+        <v>1.538680615849593</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.549322735182263</v>
+        <v>1.305860463257539</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.339721193842019</v>
+        <v>1.28940014051466</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.373684647261792</v>
+        <v>1.559376131819768</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.451138572856363</v>
+        <v>1.445044854897983</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.345986841088705</v>
+        <v>1.308742567538335</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.69324933810694</v>
+        <v>1.420327761619945</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.622712517221935</v>
+        <v>1.616194303014731</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.436192446872964</v>
+        <v>1.551153523777054</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.435831168610218</v>
+        <v>1.516382941578474</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.622276104956437</v>
+        <v>1.49773852573911</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.885140020055395</v>
+        <v>1.477858287648566</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.514759007948865</v>
+        <v>1.587831169859465</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.180687927009455</v>
+        <v>1.477418703124841</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.417499039939973</v>
+        <v>1.590199108940569</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.648994784917947</v>
+        <v>1.317638458536545</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.342831279981397</v>
+        <v>1.134782315313974</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.283712722882488</v>
+        <v>1.570751070151831</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.305217367886234</v>
+        <v>1.433503674373515</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.460657470932316</v>
+        <v>1.566059282680464</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.523560307246477</v>
+        <v>1.621195825030644</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.205567421421534</v>
+        <v>1.399212917842042</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.498836348338925</v>
+        <v>1.850051381042924</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.553754298836394</v>
+        <v>1.62999973876394</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.867767733089422</v>
+        <v>1.735561462754963</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.525156082545834</v>
+        <v>1.507789030533542</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.366759830838583</v>
+        <v>1.389754688401273</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.554458276519606</v>
+        <v>1.506517448302122</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.400370872872475</v>
+        <v>1.28513746512043</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.280131018665132</v>
+        <v>1.244831655330486</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.277922587729423</v>
+        <v>1.470842020067245</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.46754897907969</v>
+        <v>1.531882016891346</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.373167351849011</v>
+        <v>1.542281708535227</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.585706441658126</v>
+        <v>1.686111313089154</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.80864641806373</v>
+        <v>1.543187842365344</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.495013253307596</v>
+        <v>1.256992679255319</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.450474976127033</v>
+        <v>1.338896406581508</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.496926060598278</v>
+        <v>1.493029199505597</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.567432118322467</v>
+        <v>1.384028094634691</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.546987952843234</v>
+        <v>1.422994794400972</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.556923089725418</v>
+        <v>1.635721699764705</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.290267959799596</v>
+        <v>1.615790350673871</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.684644771564215</v>
+        <v>1.319155060755731</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.449560925180816</v>
+        <v>1.438272650826474</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.582108192494879</v>
+        <v>1.774517437233011</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.72586232318752</v>
+        <v>1.470562533559951</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.625684409397747</v>
+        <v>1.294120681511572</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.5378142278708</v>
+        <v>1.407459208384549</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.650219001777877</v>
+        <v>1.302016836229039</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.478471408208274</v>
+        <v>1.772555482556352</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>1.506102470085498</v>
+        <v>1.530875927154576</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.383853736826409</v>
+        <v>1.488931978690762</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.34077109727345</v>
+        <v>1.611112263376829</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.475416084670843</v>
+        <v>1.736074816306935</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.699565704843008</v>
+        <v>1.598291161575371</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.537762555506136</v>
+        <v>1.340270054425267</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.515427740790674</v>
+        <v>1.423687218160705</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.520271390446525</v>
+        <v>1.466572392778009</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.589446121549619</v>
+        <v>1.908303784868445</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.529108383013287</v>
+        <v>1.547983274831188</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.542830972404574</v>
+        <v>1.442437667082965</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.492111315678177</v>
+        <v>1.702148946113807</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.511164342709563</v>
+        <v>1.57324830838057</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.53906428761008</v>
+        <v>1.321006502829589</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.363769498120069</v>
+        <v>1.249431439008067</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.429169595511956</v>
+        <v>1.382573421963146</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.433100119346119</v>
+        <v>1.349488085420092</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.362197095950858</v>
+        <v>1.34488969190223</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.79497207607155</v>
+        <v>1.748424727373086</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.489625021494554</v>
+        <v>1.417283990050471</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.409092899495482</v>
+        <v>1.466182452662666</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.640308622619908</v>
+        <v>1.367237349710329</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.42532323010706</v>
+        <v>1.60786493602311</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.429930789893084</v>
+        <v>1.451656207616266</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.444267791841205</v>
+        <v>1.582991558369296</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.205234603141099</v>
+        <v>1.741889218296174</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.593347868388643</v>
+        <v>1.398009364518982</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.729187959060261</v>
+        <v>1.596708823828174</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.673011854270506</v>
+        <v>1.430476503263317</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.518874441168644</v>
+        <v>1.702998649617888</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.794027424847616</v>
+        <v>1.448873653970661</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.323555511200288</v>
+        <v>1.448154492268772</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.5085054527524</v>
+        <v>1.485531830577747</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.489068469045131</v>
+        <v>1.445797041706999</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.347939507067893</v>
+        <v>1.336380217645953</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.383361490939122</v>
+        <v>1.445432159016124</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.504658385010974</v>
+        <v>1.314701132619684</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.429284475272624</v>
+        <v>1.538321016452514</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.498603807067006</v>
+        <v>1.523748506869794</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.633707101765995</v>
+        <v>1.630300074377514</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.561407494691639</v>
+        <v>1.666524453134838</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.590077571810981</v>
+        <v>1.643990826564341</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.464308028089429</v>
+        <v>1.416709542699268</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.624339259411736</v>
+        <v>1.587473827847445</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.538515862550643</v>
+        <v>1.531500659189075</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.413973154260403</v>
+        <v>1.382302574122762</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.63460307343169</v>
+        <v>1.53914021055201</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.527621508470028</v>
+        <v>1.591005422914285</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.540150967841765</v>
+        <v>1.460444888528988</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.173553613015264</v>
+        <v>1.38527356775976</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.495908928451458</v>
+        <v>1.43183451119342</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.358386781076899</v>
+        <v>1.335900308696625</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.356476483769271</v>
+        <v>1.557918646780511</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.65153892412812</v>
+        <v>1.600034925670389</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.443490506250476</v>
+        <v>1.439641105761984</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.214043742434652</v>
+        <v>1.542683726906927</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.165330862245912</v>
+        <v>1.552787642502903</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.673550562888735</v>
+        <v>1.667431701023866</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.568149822316005</v>
+        <v>1.346314684280274</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.487163803930582</v>
+        <v>1.681339386372483</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.508579042788419</v>
+        <v>1.617910556592435</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.519010827260078</v>
+        <v>1.300583064421994</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.514232366059495</v>
+        <v>1.327257948807305</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.473919977060416</v>
+        <v>1.819202443599017</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.365502297383131</v>
+        <v>1.437425176962694</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.357886611890235</v>
+        <v>1.31442047018972</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.346193840354853</v>
+        <v>1.456174716917075</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.373768733777248</v>
+        <v>1.332813230504921</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.344473663494835</v>
+        <v>1.456006260397051</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.495545652233247</v>
+        <v>1.693239095710958</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.264847416399848</v>
+        <v>1.561340778353299</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.352665149188476</v>
+        <v>1.637440711677871</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.242187012439479</v>
+        <v>1.433805718406049</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.451068554845889</v>
+        <v>1.580181611461912</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.493476628834101</v>
+        <v>1.307523135726765</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.353440900087518</v>
+        <v>1.478396080403134</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.384613953299072</v>
+        <v>1.831016999723742</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.656784616881206</v>
+        <v>1.51158788061204</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.665644696818362</v>
+        <v>1.35019996905285</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.395368080811306</v>
+        <v>1.315013212448562</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.627273159287413</v>
+        <v>1.513727763598914</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.527989730253776</v>
+        <v>1.270077494800893</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.661825968073402</v>
+        <v>1.632372810970723</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.692863582556878</v>
+        <v>1.52957567940699</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.403091930769295</v>
+        <v>1.601400617700942</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.530015393185495</v>
+        <v>1.474367835589169</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.498430265936906</v>
+        <v>1.660149676030921</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.578771902081899</v>
+        <v>1.64347297250736</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.75983006764276</v>
+        <v>1.425924716576997</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.388185438566949</v>
+        <v>1.577776711196037</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.236101719299094</v>
+        <v>1.430899758553189</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.560854075609554</v>
+        <v>1.581142667241453</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.44645281895964</v>
+        <v>1.330399922857079</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.627603007897656</v>
+        <v>1.642581605689392</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.445244421595724</v>
+        <v>1.57009514273136</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.343788953932973</v>
+        <v>1.012974091344284</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.472915100131894</v>
+        <v>1.239957390830012</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.315045726802834</v>
+        <v>1.50740808460465</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.511405824022011</v>
+        <v>1.470826254807369</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.382141557822529</v>
+        <v>1.590865848105094</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.508335537691736</v>
+        <v>1.494097351760061</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.629381623454246</v>
+        <v>1.554575058755887</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,592 +31,592 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.283942388759622</v>
+        <v>1.296879485813608</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.528052904538875</v>
+        <v>1.475763036107389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.489932690465424</v>
+        <v>1.658866332765781</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.490656052922481</v>
+        <v>1.514579135978832</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.721220284029441</v>
+        <v>1.481664357301381</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.365874853996369</v>
+        <v>1.528441862043734</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.644404002348764</v>
+        <v>1.608908319794997</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.701835313354331</v>
+        <v>1.449138729561979</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.389195617419678</v>
+        <v>1.564587452221212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.318767803097594</v>
+        <v>1.416069157924996</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.624750143705569</v>
+        <v>1.600062689363682</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.478680967306448</v>
+        <v>1.361019207937876</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.717196169020189</v>
+        <v>1.36159667611115</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.601707719885097</v>
+        <v>1.291300690704003</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.659445829690449</v>
+        <v>1.721720305475791</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.600650364154143</v>
+        <v>1.314420657595537</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.546003200092291</v>
+        <v>1.351393860048796</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.658739251227384</v>
+        <v>1.344793019031001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.457444081635595</v>
+        <v>1.307509598928552</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.362084169936357</v>
+        <v>1.452189940765004</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.54842768329401</v>
+        <v>1.621744591319352</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.422160487487017</v>
+        <v>1.345067746635183</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.64913982028416</v>
+        <v>1.221716644462689</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.302859827933637</v>
+        <v>1.440576656913041</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.773670690460591</v>
+        <v>1.483103769999942</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.347218267240295</v>
+        <v>1.508878984144894</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.277364129487998</v>
+        <v>1.369238114570023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.555792169935434</v>
+        <v>1.603823813881511</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.475651697770765</v>
+        <v>1.652068853492582</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.50456376636964</v>
+        <v>1.549043130307156</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.652053449810412</v>
+        <v>1.561458384427123</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.400646555809606</v>
+        <v>1.763424737662857</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.560240703967812</v>
+        <v>1.144962590236246</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.555016683575108</v>
+        <v>1.599013362219539</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.463700995899311</v>
+        <v>1.585748586121406</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.475048857296108</v>
+        <v>1.461102909343959</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.389170082365243</v>
+        <v>1.42994631831146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.572281125767461</v>
+        <v>1.370959709193118</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.637846638759538</v>
+        <v>1.246638513258493</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.638252568586845</v>
+        <v>1.814018826010779</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.448150434807725</v>
+        <v>1.448102728823122</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.392917488323687</v>
+        <v>1.602087432453835</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.385159443621209</v>
+        <v>1.504655181642851</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.488096809411293</v>
+        <v>1.502742686373432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.475005523254126</v>
+        <v>1.245360129559907</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.347636934900396</v>
+        <v>1.391252576697299</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.593729397069815</v>
+        <v>1.607757679294955</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.752547300524194</v>
+        <v>1.368305358175536</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.216958265547414</v>
+        <v>1.753587612677665</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.475747470729966</v>
+        <v>1.423433928732166</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.663749270580469</v>
+        <v>1.298296232702006</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.600897819564491</v>
+        <v>1.465389950477026</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.690885665084853</v>
+        <v>1.382733516323051</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.685920363950219</v>
+        <v>1.443359574923377</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.419317545352705</v>
+        <v>1.495149196837202</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.284214549154062</v>
+        <v>1.538529115368793</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.351986946572351</v>
+        <v>1.740645054021408</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.5073954975163</v>
+        <v>1.729303720220171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.699954765211828</v>
+        <v>1.587616362657176</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.747001891613229</v>
+        <v>1.506988126233644</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.594844624736131</v>
+        <v>1.421112349967784</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.590354352576162</v>
+        <v>1.532896142780764</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.261000030388974</v>
+        <v>1.578599401653425</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.467462725169169</v>
+        <v>1.455713324464064</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.605472773543409</v>
+        <v>1.417966688338986</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.44163178064635</v>
+        <v>1.710700024089362</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.542085478817557</v>
+        <v>1.248616250501163</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.595882738947284</v>
+        <v>1.514406555954141</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.376184586402934</v>
+        <v>1.435902152130149</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.60535882899094</v>
+        <v>1.518259015433132</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.471648778721406</v>
+        <v>1.477388610750101</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.360740152154917</v>
+        <v>1.468102102271905</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.409141096584624</v>
+        <v>1.279225933021567</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.640055128514742</v>
+        <v>1.092757525641769</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.772449941599901</v>
+        <v>1.298442220690854</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.224376564050349</v>
+        <v>1.557602202583445</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.543116151428798</v>
+        <v>1.370280000334747</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.415828666597357</v>
+        <v>1.410685834196726</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.825392523809518</v>
+        <v>1.477711611026378</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.38230867458192</v>
+        <v>1.554339663949113</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.750203079573115</v>
+        <v>1.458974241472919</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.310486972949404</v>
+        <v>1.412782173565684</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.620449332001638</v>
+        <v>1.175753184605204</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.594326501660227</v>
+        <v>1.601260358193436</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.308178375170315</v>
+        <v>1.268939207428556</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.551926377570927</v>
+        <v>1.221637016094511</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.424229014392617</v>
+        <v>1.438344213864651</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.472730396270437</v>
+        <v>1.498876756788585</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.347395596826629</v>
+        <v>1.250774017535731</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.192862809290123</v>
+        <v>1.469779584185075</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.561597651620488</v>
+        <v>1.569405634694853</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.37771116063637</v>
+        <v>1.720694728784042</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.614312240898139</v>
+        <v>1.355259683429388</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.692669171175171</v>
+        <v>1.338799024012428</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.304849945207691</v>
+        <v>1.598877039703979</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.715391881717982</v>
+        <v>1.581285413526877</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.151054957748444</v>
+        <v>1.824679406910945</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.407874004439328</v>
+        <v>1.35848055497914</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.629409311887012</v>
+        <v>1.736376887070362</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.380938919295571</v>
+        <v>1.632746350163582</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.550063537575658</v>
+        <v>1.354312697659977</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.636363070575986</v>
+        <v>1.438157631700522</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.489617343501042</v>
+        <v>1.316248995307031</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.347121765169704</v>
+        <v>1.398892201423994</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.538680615849593</v>
+        <v>1.472150559494557</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.305860463257539</v>
+        <v>1.299676224934047</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.28940014051466</v>
+        <v>1.551997949272908</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.559376131819768</v>
+        <v>1.192587711408123</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.445044854897983</v>
+        <v>1.341320189405236</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.308742567538335</v>
+        <v>1.532806984239421</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.420327761619945</v>
+        <v>1.72371273051068</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.616194303014731</v>
+        <v>1.34246700214722</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.551153523777054</v>
+        <v>1.481583948741007</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.516382941578474</v>
+        <v>1.706871625139522</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.49773852573911</v>
+        <v>1.543131839973136</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.477858287648566</v>
+        <v>1.458805457919598</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.587831169859465</v>
+        <v>1.338957042982514</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.477418703124841</v>
+        <v>1.622251126759477</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.590199108940569</v>
+        <v>1.453370662875647</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.317638458536545</v>
+        <v>1.781048356918698</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.134782315313974</v>
+        <v>1.564843865946211</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.570751070151831</v>
+        <v>1.603639756072586</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.433503674373515</v>
+        <v>1.464148408184073</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.566059282680464</v>
+        <v>1.399103808136597</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1.621195825030644</v>
+        <v>1.341965755527685</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.399212917842042</v>
+        <v>1.314962274152615</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.850051381042924</v>
+        <v>1.568844495994067</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.62999973876394</v>
+        <v>1.467572341953721</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.735561462754963</v>
+        <v>1.406305645467762</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.507789030533542</v>
+        <v>1.506052083077944</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.389754688401273</v>
+        <v>1.428044651128639</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.506517448302122</v>
+        <v>1.457141255618716</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.28513746512043</v>
+        <v>1.439658729880772</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.244831655330486</v>
+        <v>1.559465313173849</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.470842020067245</v>
+        <v>1.576720089497024</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.531882016891346</v>
+        <v>1.404362139614883</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.542281708535227</v>
+        <v>1.845321032217328</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.686111313089154</v>
+        <v>1.394652756121413</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.543187842365344</v>
+        <v>1.463166049783694</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.256992679255319</v>
+        <v>1.57838049033776</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.338896406581508</v>
+        <v>1.635653409243368</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.493029199505597</v>
+        <v>1.714755822951335</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.384028094634691</v>
+        <v>1.577518212995304</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.422994794400972</v>
+        <v>1.629987805096135</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.635721699764705</v>
+        <v>1.431655232860034</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.615790350673871</v>
+        <v>1.554709259717334</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.319155060755731</v>
+        <v>1.276811033958596</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.438272650826474</v>
+        <v>1.263781614341946</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.774517437233011</v>
+        <v>1.238644595357385</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.470562533559951</v>
+        <v>1.239976420073143</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.294120681511572</v>
+        <v>1.61890414026941</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.407459208384549</v>
+        <v>1.671379599730749</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.302016836229039</v>
+        <v>1.333268475457863</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.772555482556352</v>
+        <v>1.491031438622247</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.530875927154576</v>
+        <v>1.434963816596084</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.488931978690762</v>
+        <v>1.526849536589268</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.611112263376829</v>
+        <v>1.128723245578261</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.736074816306935</v>
+        <v>1.476543165837</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.598291161575371</v>
+        <v>1.306758971333965</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.340270054425267</v>
+        <v>1.258507935078875</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.423687218160705</v>
+        <v>1.273958411867354</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.466572392778009</v>
+        <v>1.344709573915313</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.908303784868445</v>
+        <v>1.534287017699389</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.547983274831188</v>
+        <v>1.592573663203372</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.442437667082965</v>
+        <v>1.798149847414442</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.702148946113807</v>
+        <v>1.616029775466973</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.57324830838057</v>
+        <v>1.548882088528267</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.321006502829589</v>
+        <v>1.579429450405751</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.249431439008067</v>
+        <v>1.412286750356734</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.382573421963146</v>
+        <v>1.668826021672607</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.349488085420092</v>
+        <v>1.697372646877664</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.34488969190223</v>
+        <v>1.502613937500824</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.748424727373086</v>
+        <v>1.499926513386011</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.417283990050471</v>
+        <v>1.57445272142353</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.466182452662666</v>
+        <v>1.52159011337964</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.367237349710329</v>
+        <v>1.576356835642593</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.60786493602311</v>
+        <v>1.454287812002179</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.451656207616266</v>
+        <v>1.412844165048819</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.582991558369296</v>
+        <v>1.618824024004164</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.741889218296174</v>
+        <v>1.687349722383782</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.398009364518982</v>
+        <v>1.598465364282208</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.596708823828174</v>
+        <v>1.458838636121486</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.430476503263317</v>
+        <v>1.430162736841924</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.702998649617888</v>
+        <v>1.571282230868772</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.448873653970661</v>
+        <v>1.202104690728512</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.448154492268772</v>
+        <v>1.532173002510579</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.485531830577747</v>
+        <v>1.659843422305336</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.445797041706999</v>
+        <v>1.468752509531952</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.336380217645953</v>
+        <v>1.468622784442098</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.445432159016124</v>
+        <v>1.450617304925655</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.314701132619684</v>
+        <v>1.61350653287826</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.538321016452514</v>
+        <v>1.465185172403264</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.523748506869794</v>
+        <v>1.585432407361584</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.630300074377514</v>
+        <v>1.786882739935494</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.666524453134838</v>
+        <v>1.567493946165798</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.643990826564341</v>
+        <v>1.610400705522451</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.416709542699268</v>
+        <v>1.468642935452118</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.587473827847445</v>
+        <v>1.59606788750552</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.531500659189075</v>
+        <v>1.485912587022745</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.382302574122762</v>
+        <v>1.444050279010985</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.53914021055201</v>
+        <v>1.6044908680401</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.591005422914285</v>
+        <v>1.200748323349191</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.460444888528988</v>
+        <v>1.161294483560924</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.38527356775976</v>
+        <v>1.593786000078784</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.43183451119342</v>
+        <v>1.794520073295421</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.335900308696625</v>
+        <v>1.201632337720837</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.557918646780511</v>
+        <v>1.398784767049101</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.600034925670389</v>
+        <v>1.499387409644363</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.439641105761984</v>
+        <v>1.508058075616365</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.542683726906927</v>
+        <v>1.707539721204266</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.552787642502903</v>
+        <v>1.295239850729525</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.667431701023866</v>
+        <v>1.680980770497731</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.346314684280274</v>
+        <v>1.457537432386568</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.681339386372483</v>
+        <v>1.311595930280081</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.617910556592435</v>
+        <v>1.561911025330789</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.300583064421994</v>
+        <v>1.63554479519877</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.327257948807305</v>
+        <v>1.406328368498663</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.819202443599017</v>
+        <v>1.661227583081822</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.437425176962694</v>
+        <v>1.44947275643596</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.31442047018972</v>
+        <v>1.638262284725912</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.456174716917075</v>
+        <v>1.791941522500657</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.332813230504921</v>
+        <v>1.229141335680829</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.456006260397051</v>
+        <v>1.441707954509659</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.693239095710958</v>
+        <v>1.406714462556504</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.561340778353299</v>
+        <v>1.512415177073937</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.637440711677871</v>
+        <v>1.43058903779121</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.433805718406049</v>
+        <v>1.585708381031362</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.580181611461912</v>
+        <v>1.364029990118695</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.307523135726765</v>
+        <v>1.599734055482601</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.478396080403134</v>
+        <v>1.366027673083539</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.831016999723742</v>
+        <v>1.473314538489378</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.51158788061204</v>
+        <v>1.641667119736016</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.35019996905285</v>
+        <v>1.765909272771805</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.315013212448562</v>
+        <v>1.423188462901254</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.513727763598914</v>
+        <v>1.384292579321956</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.270077494800893</v>
+        <v>1.759937434364449</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.632372810970723</v>
+        <v>1.412388689393825</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.52957567940699</v>
+        <v>1.407445068267</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.601400617700942</v>
+        <v>1.666013416385847</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.474367835589169</v>
+        <v>1.532142350776573</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.660149676030921</v>
+        <v>1.331124667344452</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.64347297250736</v>
+        <v>1.532008495425189</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.425924716576997</v>
+        <v>1.630436548626587</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.577776711196037</v>
+        <v>1.624853995420818</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.430899758553189</v>
+        <v>1.563898865303342</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.581142667241453</v>
+        <v>1.517458945740645</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.330399922857079</v>
+        <v>1.315636603418053</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.642581605689392</v>
+        <v>1.405985812929702</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.57009514273136</v>
+        <v>1.390013619913465</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.012974091344284</v>
+        <v>1.607027991915672</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.239957390830012</v>
+        <v>1.335669094399308</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.50740808460465</v>
+        <v>1.526812218043948</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.470826254807369</v>
+        <v>1.621625736169169</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.590865848105094</v>
+        <v>1.649031771629905</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.494097351760061</v>
+        <v>1.177254046822277</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.554575058755887</v>
+        <v>1.558627743071678</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.296879485813608</v>
+        <v>1.607758260598871</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.475763036107389</v>
+        <v>1.343764522993479</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.658866332765781</v>
+        <v>1.468493188175166</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.514579135978832</v>
+        <v>1.279710583500787</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.481664357301381</v>
+        <v>1.556990650789749</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.528441862043734</v>
+        <v>1.420197102911056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.608908319794997</v>
+        <v>1.438906137350306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.449138729561979</v>
+        <v>1.426821810277693</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.564587452221212</v>
+        <v>1.419902912196263</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.416069157924996</v>
+        <v>1.35044339786121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.600062689363682</v>
+        <v>1.691510188830911</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.361019207937876</v>
+        <v>1.662815559153133</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.36159667611115</v>
+        <v>1.661679356756513</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.291300690704003</v>
+        <v>1.428856888288125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.721720305475791</v>
+        <v>1.517084870345647</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.314420657595537</v>
+        <v>1.809439497522949</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.351393860048796</v>
+        <v>1.32481276379262</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.344793019031001</v>
+        <v>1.456554282409169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.307509598928552</v>
+        <v>1.263084353447406</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.452189940765004</v>
+        <v>1.489623190909292</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.621744591319352</v>
+        <v>1.367007271495494</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.345067746635183</v>
+        <v>1.497480590994438</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.221716644462689</v>
+        <v>1.581202159613596</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.440576656913041</v>
+        <v>1.43712399475799</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.483103769999942</v>
+        <v>1.480495092063712</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.508878984144894</v>
+        <v>1.53681781533572</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.369238114570023</v>
+        <v>1.41075301136896</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.603823813881511</v>
+        <v>1.642408111229149</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.652068853492582</v>
+        <v>1.77608553780799</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.549043130307156</v>
+        <v>1.748856550831698</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.561458384427123</v>
+        <v>1.371818814317836</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.763424737662857</v>
+        <v>1.611583088873339</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.144962590236246</v>
+        <v>1.467446096190561</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.599013362219539</v>
+        <v>1.720842827518128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.585748586121406</v>
+        <v>1.506265558545621</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.461102909343959</v>
+        <v>1.549740293659578</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.42994631831146</v>
+        <v>1.341073999289173</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.370959709193118</v>
+        <v>1.648714122332416</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.246638513258493</v>
+        <v>1.625124959386228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.814018826010779</v>
+        <v>1.674999683185343</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.448102728823122</v>
+        <v>1.389158775366641</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.602087432453835</v>
+        <v>1.433291718035528</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.504655181642851</v>
+        <v>1.457097081365465</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.502742686373432</v>
+        <v>1.414264841452347</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.245360129559907</v>
+        <v>1.376980117089743</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.391252576697299</v>
+        <v>1.547431054534891</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.607757679294955</v>
+        <v>1.398336824772819</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.368305358175536</v>
+        <v>1.450503521174935</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.753587612677665</v>
+        <v>1.643018356791529</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.423433928732166</v>
+        <v>1.531946757658175</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.298296232702006</v>
+        <v>1.573883181194641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.465389950477026</v>
+        <v>1.484582496357947</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.382733516323051</v>
+        <v>1.601756906298555</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.443359574923377</v>
+        <v>1.583286706055934</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.495149196837202</v>
+        <v>1.402893449621913</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.538529115368793</v>
+        <v>1.525795551653519</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.740645054021408</v>
+        <v>1.434616368852914</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.729303720220171</v>
+        <v>1.634109516028965</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.587616362657176</v>
+        <v>1.786333977590798</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.506988126233644</v>
+        <v>1.630061561561313</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.421112349967784</v>
+        <v>1.472525562725951</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1.532896142780764</v>
+        <v>1.790416311921371</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.578599401653425</v>
+        <v>1.534684781950836</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.455713324464064</v>
+        <v>1.604175660603839</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.417966688338986</v>
+        <v>1.384020019029924</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.710700024089362</v>
+        <v>1.287874805790971</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.248616250501163</v>
+        <v>1.476863465121608</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.514406555954141</v>
+        <v>1.686072352561896</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.435902152130149</v>
+        <v>1.624542313261881</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.518259015433132</v>
+        <v>1.513513426813092</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.477388610750101</v>
+        <v>1.605917941942367</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.468102102271905</v>
+        <v>1.600662702095178</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.279225933021567</v>
+        <v>1.553140870003571</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.092757525641769</v>
+        <v>1.398378763409057</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.298442220690854</v>
+        <v>1.436723745688101</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.557602202583445</v>
+        <v>1.371737683414705</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.370280000334747</v>
+        <v>1.425199548418707</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.410685834196726</v>
+        <v>1.60726144932421</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.477711611026378</v>
+        <v>1.519357748885124</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.554339663949113</v>
+        <v>1.452091076087705</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.458974241472919</v>
+        <v>1.524748611896763</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.412782173565684</v>
+        <v>1.52730109466706</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.175753184605204</v>
+        <v>1.582574993319974</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.601260358193436</v>
+        <v>1.91559161223019</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.268939207428556</v>
+        <v>1.622853558106651</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.221637016094511</v>
+        <v>1.576180488551578</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.438344213864651</v>
+        <v>1.382288750036356</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.498876756788585</v>
+        <v>1.41303422370853</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.250774017535731</v>
+        <v>1.444976452208652</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.469779584185075</v>
+        <v>1.709807132834567</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.569405634694853</v>
+        <v>1.417889463023156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.720694728784042</v>
+        <v>1.57399239449796</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.355259683429388</v>
+        <v>1.657164252914651</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.338799024012428</v>
+        <v>1.325854603080957</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.598877039703979</v>
+        <v>1.557847561392764</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.581285413526877</v>
+        <v>1.155590774838575</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.824679406910945</v>
+        <v>1.768326701764027</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.35848055497914</v>
+        <v>1.356944148235703</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.736376887070362</v>
+        <v>1.460512855651348</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.632746350163582</v>
+        <v>1.398693847891263</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.354312697659977</v>
+        <v>1.453347542814524</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.438157631700522</v>
+        <v>1.431470304836071</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.316248995307031</v>
+        <v>1.55099108205644</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.398892201423994</v>
+        <v>1.34246929747934</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.472150559494557</v>
+        <v>1.57501204081005</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.299676224934047</v>
+        <v>1.356372860733978</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.551997949272908</v>
+        <v>1.406152077030998</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.192587711408123</v>
+        <v>1.418742309475507</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.341320189405236</v>
+        <v>1.515391425095917</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.532806984239421</v>
+        <v>1.534619114019684</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.72371273051068</v>
+        <v>1.557694117305668</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.34246700214722</v>
+        <v>1.386080047257819</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.481583948741007</v>
+        <v>1.658173606804972</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.706871625139522</v>
+        <v>1.594063167880414</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.543131839973136</v>
+        <v>1.485009631778662</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.458805457919598</v>
+        <v>1.490897592089385</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.338957042982514</v>
+        <v>1.522014868580624</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.622251126759477</v>
+        <v>1.541821957369722</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.453370662875647</v>
+        <v>1.417610526828613</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.781048356918698</v>
+        <v>1.549020342521863</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.564843865946211</v>
+        <v>1.495565594132719</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.603639756072586</v>
+        <v>1.292064834799406</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.464148408184073</v>
+        <v>1.58179001769033</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.399103808136597</v>
+        <v>1.468583066578045</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.341965755527685</v>
+        <v>1.533024102414477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.314962274152615</v>
+        <v>1.828029117093246</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.568844495994067</v>
+        <v>1.592658963332898</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.467572341953721</v>
+        <v>1.579736497319949</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.406305645467762</v>
+        <v>1.71209353645078</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.506052083077944</v>
+        <v>1.278059985883869</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.428044651128639</v>
+        <v>1.649814500985203</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.457141255618716</v>
+        <v>1.513033371978086</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.439658729880772</v>
+        <v>1.571335344860789</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.559465313173849</v>
+        <v>1.557384915908753</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.576720089497024</v>
+        <v>1.36775574433011</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.404362139614883</v>
+        <v>1.587455666942039</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.845321032217328</v>
+        <v>1.560460576563446</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.394652756121413</v>
+        <v>1.488011311508528</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.463166049783694</v>
+        <v>1.313274852452559</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.57838049033776</v>
+        <v>1.471677866081703</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.635653409243368</v>
+        <v>1.599881064473325</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.714755822951335</v>
+        <v>1.497347908955082</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.577518212995304</v>
+        <v>1.352023919118448</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.629987805096135</v>
+        <v>1.476383499874128</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.431655232860034</v>
+        <v>1.544824469773492</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.554709259717334</v>
+        <v>1.400682036853856</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.276811033958596</v>
+        <v>1.278684276978125</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.263781614341946</v>
+        <v>1.187572442927225</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.238644595357385</v>
+        <v>1.540525634162273</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.239976420073143</v>
+        <v>1.582167266491477</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.61890414026941</v>
+        <v>1.4158928194251</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.671379599730749</v>
+        <v>1.162763167418149</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.333268475457863</v>
+        <v>1.381868758835637</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.491031438622247</v>
+        <v>1.371686677151663</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.434963816596084</v>
+        <v>1.675913955541454</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1.526849536589268</v>
+        <v>1.625917270299442</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.128723245578261</v>
+        <v>1.251099656766644</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.476543165837</v>
+        <v>1.319784183923842</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.306758971333965</v>
+        <v>1.47042026634225</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.258507935078875</v>
+        <v>1.711150482243659</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.273958411867354</v>
+        <v>1.563645854772435</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.344709573915313</v>
+        <v>1.619429672857466</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.534287017699389</v>
+        <v>1.350647934111827</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.592573663203372</v>
+        <v>1.257558438499355</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.798149847414442</v>
+        <v>1.515995958271253</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.616029775466973</v>
+        <v>1.491081317405864</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.548882088528267</v>
+        <v>1.723211459159742</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.579429450405751</v>
+        <v>1.557884741318763</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.412286750356734</v>
+        <v>1.317942593093671</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.668826021672607</v>
+        <v>1.797113201214812</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.697372646877664</v>
+        <v>1.356196117736817</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.502613937500824</v>
+        <v>1.724179035372711</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.499926513386011</v>
+        <v>1.36667102316218</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.57445272142353</v>
+        <v>1.721367354070611</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.52159011337964</v>
+        <v>1.336232461523538</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.576356835642593</v>
+        <v>1.590439192385432</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.454287812002179</v>
+        <v>1.419608393550745</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.412844165048819</v>
+        <v>1.377937503362596</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.618824024004164</v>
+        <v>1.500065014360113</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.687349722383782</v>
+        <v>1.371603195157809</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.598465364282208</v>
+        <v>1.337374746980768</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.458838636121486</v>
+        <v>1.194253598778066</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.430162736841924</v>
+        <v>1.641234068101548</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.571282230868772</v>
+        <v>1.351897492842257</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.202104690728512</v>
+        <v>1.630116033768477</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.532173002510579</v>
+        <v>1.319661195279397</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.659843422305336</v>
+        <v>1.305906705992708</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.468752509531952</v>
+        <v>1.506846200476837</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.468622784442098</v>
+        <v>1.457625554609883</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.450617304925655</v>
+        <v>1.35426842748939</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.61350653287826</v>
+        <v>1.528385796783064</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.465185172403264</v>
+        <v>1.513623856177134</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.585432407361584</v>
+        <v>1.536847356447344</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.786882739935494</v>
+        <v>1.631830021684057</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.567493946165798</v>
+        <v>1.458815657793365</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.610400705522451</v>
+        <v>1.558186164882013</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.468642935452118</v>
+        <v>1.538110914302101</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.59606788750552</v>
+        <v>1.706280877655949</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.485912587022745</v>
+        <v>1.581941622108066</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.444050279010985</v>
+        <v>1.401789841222983</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.6044908680401</v>
+        <v>1.507335472136128</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.200748323349191</v>
+        <v>1.433472075001299</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1.161294483560924</v>
+        <v>1.508024386659118</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.593786000078784</v>
+        <v>1.326621895140319</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.794520073295421</v>
+        <v>1.632891441597033</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.201632337720837</v>
+        <v>1.471413650407193</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.398784767049101</v>
+        <v>1.290398459553295</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.499387409644363</v>
+        <v>1.598737621349107</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.508058075616365</v>
+        <v>1.496780699794083</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.707539721204266</v>
+        <v>1.423083275669391</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.295239850729525</v>
+        <v>1.55101209451239</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.680980770497731</v>
+        <v>1.532286052402677</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.457537432386568</v>
+        <v>1.479632280441</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.311595930280081</v>
+        <v>1.435378178064235</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.561911025330789</v>
+        <v>1.266665801868195</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.63554479519877</v>
+        <v>1.511660092816228</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.406328368498663</v>
+        <v>1.347274979653757</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.661227583081822</v>
+        <v>1.510870804354087</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.44947275643596</v>
+        <v>1.709211648166272</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.638262284725912</v>
+        <v>1.437716396810188</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.791941522500657</v>
+        <v>1.199522900137338</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.229141335680829</v>
+        <v>1.320561411234734</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.441707954509659</v>
+        <v>1.599136151254491</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.406714462556504</v>
+        <v>1.71103479596322</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.512415177073937</v>
+        <v>1.602902502046193</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.43058903779121</v>
+        <v>1.291007060031163</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.585708381031362</v>
+        <v>1.281324938922383</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.364029990118695</v>
+        <v>1.648898847327158</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.599734055482601</v>
+        <v>1.439963242482574</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.366027673083539</v>
+        <v>1.529297398080212</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.473314538489378</v>
+        <v>1.530312725722606</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.641667119736016</v>
+        <v>1.534427790755413</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.765909272771805</v>
+        <v>1.745293834957458</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>1.423188462901254</v>
+        <v>1.459489145219614</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.384292579321956</v>
+        <v>1.614324732899374</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.759937434364449</v>
+        <v>1.243563602330092</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.412388689393825</v>
+        <v>1.636390564154987</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.407445068267</v>
+        <v>1.581890823943748</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.666013416385847</v>
+        <v>1.532468958579133</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.532142350776573</v>
+        <v>1.185311563561281</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.331124667344452</v>
+        <v>1.629702712115344</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.532008495425189</v>
+        <v>1.412447806822279</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.630436548626587</v>
+        <v>1.606129421914135</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.624853995420818</v>
+        <v>1.474216758857462</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.563898865303342</v>
+        <v>1.388688235584619</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.517458945740645</v>
+        <v>1.464177443905782</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.315636603418053</v>
+        <v>1.506125636817028</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.405985812929702</v>
+        <v>1.506666722498779</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.390013619913465</v>
+        <v>1.484671689273018</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.607027991915672</v>
+        <v>1.255175937064101</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.335669094399308</v>
+        <v>1.670242358174253</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.526812218043948</v>
+        <v>1.544293882791121</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.621625736169169</v>
+        <v>1.443834550637135</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.649031771629905</v>
+        <v>1.360292088364397</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.177254046822277</v>
+        <v>1.195294828664926</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.558627743071678</v>
+        <v>1.695731519109749</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
+    <t>flower/flower045.jpg</t>
   </si>
   <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
+    <t>dog/dog076.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
     <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.607758260598871</v>
+        <v>1.34035120547592</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.343764522993479</v>
+        <v>1.475427597825212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.468493188175166</v>
+        <v>1.419032782479702</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.279710583500787</v>
+        <v>1.363554186009443</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.556990650789749</v>
+        <v>1.54968179975031</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.420197102911056</v>
+        <v>1.313069023346662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.438906137350306</v>
+        <v>1.37785301354448</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.426821810277693</v>
+        <v>1.644012271142677</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.419902912196263</v>
+        <v>1.626901581119414</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.35044339786121</v>
+        <v>1.260368501399216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.691510188830911</v>
+        <v>1.432392269224729</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.662815559153133</v>
+        <v>1.386950603157202</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.661679356756513</v>
+        <v>1.467580266173922</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.428856888288125</v>
+        <v>1.555681812514236</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.517084870345647</v>
+        <v>1.480155014904809</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.809439497522949</v>
+        <v>1.745677415543807</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.32481276379262</v>
+        <v>1.620583668959435</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.456554282409169</v>
+        <v>1.450827253675111</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.263084353447406</v>
+        <v>1.424557599243466</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.489623190909292</v>
+        <v>1.652172917166361</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.367007271495494</v>
+        <v>1.28030265776002</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.497480590994438</v>
+        <v>1.848655616091357</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.581202159613596</v>
+        <v>1.422487640151276</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.43712399475799</v>
+        <v>1.646867843434995</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.480495092063712</v>
+        <v>1.489889326967632</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.53681781533572</v>
+        <v>1.773774012506155</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.41075301136896</v>
+        <v>1.60006277256171</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.642408111229149</v>
+        <v>1.667339033759207</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.77608553780799</v>
+        <v>1.624016056122495</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.748856550831698</v>
+        <v>1.528758783226086</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.371818814317836</v>
+        <v>1.391897467527552</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.611583088873339</v>
+        <v>1.338376316174789</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.467446096190561</v>
+        <v>1.617795277607658</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.720842827518128</v>
+        <v>1.395970593600966</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.506265558545621</v>
+        <v>1.447570809966503</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.549740293659578</v>
+        <v>1.496512499158292</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.341073999289173</v>
+        <v>1.646446147162565</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.648714122332416</v>
+        <v>1.223587162538103</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.625124959386228</v>
+        <v>1.465263914553075</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.674999683185343</v>
+        <v>1.632380426215744</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.389158775366641</v>
+        <v>1.702001538563826</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1.433291718035528</v>
+        <v>1.440856560400761</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.457097081365465</v>
+        <v>1.313801813810462</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.414264841452347</v>
+        <v>1.194778811786925</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.376980117089743</v>
+        <v>1.525297231297306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.547431054534891</v>
+        <v>1.459966436631732</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.398336824772819</v>
+        <v>1.635879590571944</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.450503521174935</v>
+        <v>1.627647402888396</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.643018356791529</v>
+        <v>1.61563456236531</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.531946757658175</v>
+        <v>1.488171050608879</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.573883181194641</v>
+        <v>1.599846166878841</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.484582496357947</v>
+        <v>1.459622577269623</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.601756906298555</v>
+        <v>1.525278539071895</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.583286706055934</v>
+        <v>1.474127768814848</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.402893449621913</v>
+        <v>1.670364995234776</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.525795551653519</v>
+        <v>1.650996768981811</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.434616368852914</v>
+        <v>1.591604710879542</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.634109516028965</v>
+        <v>1.780495281359585</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.786333977590798</v>
+        <v>1.670860368018609</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.630061561561313</v>
+        <v>1.712393372905139</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.472525562725951</v>
+        <v>1.821108053354028</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.790416311921371</v>
+        <v>1.667176068798306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.534684781950836</v>
+        <v>1.363676877594618</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.604175660603839</v>
+        <v>1.285065630495372</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.384020019029924</v>
+        <v>1.640759149473684</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.287874805790971</v>
+        <v>1.652061058336135</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.476863465121608</v>
+        <v>1.29693644902075</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.686072352561896</v>
+        <v>1.43692520084069</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.624542313261881</v>
+        <v>1.466531883521624</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.513513426813092</v>
+        <v>1.455233625602506</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.605917941942367</v>
+        <v>1.685681551619862</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.600662702095178</v>
+        <v>1.409195552883473</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.553140870003571</v>
+        <v>1.405345614619981</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.398378763409057</v>
+        <v>1.544760680144779</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.436723745688101</v>
+        <v>1.730067201966311</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.371737683414705</v>
+        <v>1.563876464793048</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.425199548418707</v>
+        <v>1.316879592009251</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.60726144932421</v>
+        <v>1.646057049574951</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.519357748885124</v>
+        <v>1.666840431888067</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.452091076087705</v>
+        <v>1.270233886318727</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.524748611896763</v>
+        <v>1.502011483631332</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.52730109466706</v>
+        <v>1.716961190410851</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.582574993319974</v>
+        <v>1.66466915506666</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.91559161223019</v>
+        <v>1.380089660822967</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.622853558106651</v>
+        <v>1.518276714037904</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.576180488551578</v>
+        <v>1.72240891364631</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.382288750036356</v>
+        <v>1.644025294466378</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.41303422370853</v>
+        <v>1.64885173767034</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.444976452208652</v>
+        <v>1.529252273369145</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.709807132834567</v>
+        <v>1.514434901988681</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.417889463023156</v>
+        <v>1.469238141202468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.57399239449796</v>
+        <v>1.475165857845881</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.657164252914651</v>
+        <v>1.286484929197016</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.325854603080957</v>
+        <v>1.704679525296519</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.557847561392764</v>
+        <v>1.539509770232316</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.155590774838575</v>
+        <v>1.504543131975037</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.768326701764027</v>
+        <v>1.682655921175243</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.356944148235703</v>
+        <v>1.629884456974174</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.460512855651348</v>
+        <v>1.613002534189356</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.398693847891263</v>
+        <v>1.509923434215179</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.453347542814524</v>
+        <v>1.469881558824004</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.431470304836071</v>
+        <v>1.611846280559692</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.55099108205644</v>
+        <v>1.330957067494805</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.34246929747934</v>
+        <v>1.680017304527277</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.57501204081005</v>
+        <v>1.428416633105272</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.356372860733978</v>
+        <v>1.450185248241631</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.406152077030998</v>
+        <v>1.464872621193332</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.418742309475507</v>
+        <v>1.726167119869984</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.515391425095917</v>
+        <v>1.571309958915961</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.534619114019684</v>
+        <v>1.871658036622615</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.557694117305668</v>
+        <v>1.524715517340523</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.386080047257819</v>
+        <v>1.685342930705936</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.658173606804972</v>
+        <v>1.71217608023969</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.594063167880414</v>
+        <v>1.647507059887044</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.485009631778662</v>
+        <v>1.466369875126497</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.490897592089385</v>
+        <v>1.356251306520204</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.522014868580624</v>
+        <v>1.714925941396435</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.541821957369722</v>
+        <v>1.530532151214179</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.417610526828613</v>
+        <v>1.426732381307233</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.549020342521863</v>
+        <v>1.516318679806613</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.495565594132719</v>
+        <v>1.435763689080527</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.292064834799406</v>
+        <v>1.465832174112979</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.58179001769033</v>
+        <v>1.166499661739598</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.468583066578045</v>
+        <v>1.422432072574668</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.533024102414477</v>
+        <v>1.256189280058271</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.828029117093246</v>
+        <v>1.689506272494165</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.592658963332898</v>
+        <v>1.529206998970108</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.579736497319949</v>
+        <v>1.416228941508467</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.71209353645078</v>
+        <v>1.360792196733774</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.278059985883869</v>
+        <v>1.346084830507376</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.649814500985203</v>
+        <v>1.381173006982098</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.513033371978086</v>
+        <v>1.593941445124829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.571335344860789</v>
+        <v>1.536286652173111</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.557384915908753</v>
+        <v>1.759006457214113</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.36775574433011</v>
+        <v>1.625582375062276</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.587455666942039</v>
+        <v>1.421400035148208</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.560460576563446</v>
+        <v>1.659563145679443</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.488011311508528</v>
+        <v>1.357804227434692</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.313274852452559</v>
+        <v>1.192833377623256</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.471677866081703</v>
+        <v>1.582857162570219</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.599881064473325</v>
+        <v>1.404017777007247</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.497347908955082</v>
+        <v>1.49437527956902</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.352023919118448</v>
+        <v>1.390056416984651</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.476383499874128</v>
+        <v>1.672123272481571</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.544824469773492</v>
+        <v>1.759282276130075</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.400682036853856</v>
+        <v>1.408835698390985</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.278684276978125</v>
+        <v>1.440277255008223</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.187572442927225</v>
+        <v>1.416401401208297</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.540525634162273</v>
+        <v>1.390162218310214</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.582167266491477</v>
+        <v>1.388756238415667</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.4158928194251</v>
+        <v>1.137527810520262</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.162763167418149</v>
+        <v>1.185323694914699</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.381868758835637</v>
+        <v>1.438694033421971</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.371686677151663</v>
+        <v>1.425150335889807</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.675913955541454</v>
+        <v>1.590458781841279</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.625917270299442</v>
+        <v>1.774726210179622</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.251099656766644</v>
+        <v>1.654739646874126</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.319784183923842</v>
+        <v>1.362744869384508</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.47042026634225</v>
+        <v>1.466003137378056</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.711150482243659</v>
+        <v>1.608192439462599</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.563645854772435</v>
+        <v>1.371056418280684</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.619429672857466</v>
+        <v>1.417274332095872</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.350647934111827</v>
+        <v>1.458332461444742</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.257558438499355</v>
+        <v>1.526467173822372</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.515995958271253</v>
+        <v>1.680486332810514</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.491081317405864</v>
+        <v>1.22379125786261</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.723211459159742</v>
+        <v>1.59245993740592</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.557884741318763</v>
+        <v>1.598326665279545</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.317942593093671</v>
+        <v>1.573824921016244</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.797113201214812</v>
+        <v>1.646019921242716</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.356196117736817</v>
+        <v>1.543475548646301</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.724179035372711</v>
+        <v>1.552938648773914</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.36667102316218</v>
+        <v>1.59344085794857</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.721367354070611</v>
+        <v>1.604678304005253</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.336232461523538</v>
+        <v>1.718243889114121</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.590439192385432</v>
+        <v>1.578530001271321</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.419608393550745</v>
+        <v>1.472475647526003</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.377937503362596</v>
+        <v>1.494407858163879</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.500065014360113</v>
+        <v>1.423553487302635</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.371603195157809</v>
+        <v>1.372584203105769</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.337374746980768</v>
+        <v>1.574503727824939</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.194253598778066</v>
+        <v>1.635881357468346</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.641234068101548</v>
+        <v>1.665466346093659</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.351897492842257</v>
+        <v>1.848290209099519</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.630116033768477</v>
+        <v>1.4674614769204</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.319661195279397</v>
+        <v>1.393000350899742</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.305906705992708</v>
+        <v>1.65224046924172</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.506846200476837</v>
+        <v>1.530123263365024</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.457625554609883</v>
+        <v>1.387720553221437</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.35426842748939</v>
+        <v>1.636392992983276</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.528385796783064</v>
+        <v>1.375262652640697</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.513623856177134</v>
+        <v>1.452464011853403</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.536847356447344</v>
+        <v>1.49596314022701</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.631830021684057</v>
+        <v>1.744432041457099</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.458815657793365</v>
+        <v>1.250246694293873</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.558186164882013</v>
+        <v>1.519688976107839</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.538110914302101</v>
+        <v>1.722290506786888</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.706280877655949</v>
+        <v>1.456702001996185</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.581941622108066</v>
+        <v>1.541418553550497</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.401789841222983</v>
+        <v>1.25416777669746</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.507335472136128</v>
+        <v>1.510222243879481</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.433472075001299</v>
+        <v>1.324097053230875</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.508024386659118</v>
+        <v>1.498933190637801</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.326621895140319</v>
+        <v>1.220963960770236</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.632891441597033</v>
+        <v>1.407800805068405</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.471413650407193</v>
+        <v>1.393583360871944</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.290398459553295</v>
+        <v>1.614357873658817</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.598737621349107</v>
+        <v>1.169315689856743</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.496780699794083</v>
+        <v>1.238120603093835</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.423083275669391</v>
+        <v>1.618801808674244</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.55101209451239</v>
+        <v>1.727565477597517</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.532286052402677</v>
+        <v>1.473317244858722</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.479632280441</v>
+        <v>1.466576736186797</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.435378178064235</v>
+        <v>1.153567320069367</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.266665801868195</v>
+        <v>1.56884981197227</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.511660092816228</v>
+        <v>1.504770295898239</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.347274979653757</v>
+        <v>1.820974075364728</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.510870804354087</v>
+        <v>1.415963860224851</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.709211648166272</v>
+        <v>1.289178770838106</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1.437716396810188</v>
+        <v>1.200187360277629</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.199522900137338</v>
+        <v>1.325793979059412</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.320561411234734</v>
+        <v>1.423027706639256</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.599136151254491</v>
+        <v>1.470656459649456</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.71103479596322</v>
+        <v>1.795803979456682</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.602902502046193</v>
+        <v>1.486146625378086</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.291007060031163</v>
+        <v>1.755789472153534</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.281324938922383</v>
+        <v>1.735825360504829</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.648898847327158</v>
+        <v>1.772531252810177</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.439963242482574</v>
+        <v>1.741644077951927</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.529297398080212</v>
+        <v>1.423651152247064</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.530312725722606</v>
+        <v>1.421007848895078</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.534427790755413</v>
+        <v>1.567673065308944</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.745293834957458</v>
+        <v>1.370705721833129</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.459489145219614</v>
+        <v>1.604999529423853</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.614324732899374</v>
+        <v>1.469209741491166</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.243563602330092</v>
+        <v>1.617791005739501</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.636390564154987</v>
+        <v>1.568874700352591</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.581890823943748</v>
+        <v>1.225940199977762</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.532468958579133</v>
+        <v>1.407499398435681</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.185311563561281</v>
+        <v>1.530270379026658</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.629702712115344</v>
+        <v>1.90356200843472</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.412447806822279</v>
+        <v>1.201987739909697</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.606129421914135</v>
+        <v>1.755079654375118</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.474216758857462</v>
+        <v>1.420893954644725</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.388688235584619</v>
+        <v>1.579864218058789</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.464177443905782</v>
+        <v>1.581384530502038</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.506125636817028</v>
+        <v>1.48281019854105</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.506666722498779</v>
+        <v>1.489487038509154</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.484671689273018</v>
+        <v>1.57830029994224</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.255175937064101</v>
+        <v>1.545579660237753</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.670242358174253</v>
+        <v>1.673970470960743</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.544293882791121</v>
+        <v>1.690222184704945</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.443834550637135</v>
+        <v>1.614797271528913</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.360292088364397</v>
+        <v>1.61768604664264</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.195294828664926</v>
+        <v>1.724722501272499</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.695731519109749</v>
+        <v>1.502984000103892</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>face/face039.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
     <t>house/house048.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.34035120547592</v>
+        <v>1.515205007006236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.475427597825212</v>
+        <v>1.21509860068353</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.419032782479702</v>
+        <v>1.701590049413169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.363554186009443</v>
+        <v>1.61935906231222</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.54968179975031</v>
+        <v>1.437412392498039</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.313069023346662</v>
+        <v>1.369218631528433</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.37785301354448</v>
+        <v>1.343423162257717</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.644012271142677</v>
+        <v>1.312452086236683</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.626901581119414</v>
+        <v>1.400916340589063</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.260368501399216</v>
+        <v>1.465706331657483</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.432392269224729</v>
+        <v>1.6165989061636</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.386950603157202</v>
+        <v>1.679554942587974</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.467580266173922</v>
+        <v>1.46974117299014</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.555681812514236</v>
+        <v>1.117722488402498</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.480155014904809</v>
+        <v>1.374579302139448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.745677415543807</v>
+        <v>1.55553424778158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.620583668959435</v>
+        <v>1.573763217467475</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.450827253675111</v>
+        <v>1.544395066558385</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.424557599243466</v>
+        <v>1.699155623002835</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.652172917166361</v>
+        <v>1.465385765731167</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.28030265776002</v>
+        <v>1.577121703214108</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.848655616091357</v>
+        <v>1.52591259307707</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.422487640151276</v>
+        <v>1.265229706486548</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.646867843434995</v>
+        <v>1.600930584840264</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.489889326967632</v>
+        <v>1.598028895531403</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.773774012506155</v>
+        <v>1.507456758767234</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.60006277256171</v>
+        <v>1.244116002401917</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.667339033759207</v>
+        <v>1.277797361300732</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.624016056122495</v>
+        <v>1.383769278813971</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.528758783226086</v>
+        <v>1.426364274945288</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.391897467527552</v>
+        <v>1.378248056425445</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.338376316174789</v>
+        <v>1.491777664272455</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.617795277607658</v>
+        <v>1.45407254642914</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.395970593600966</v>
+        <v>1.687639205557582</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.447570809966503</v>
+        <v>1.710937157064352</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.496512499158292</v>
+        <v>1.371642269649449</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.646446147162565</v>
+        <v>1.568309177192516</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.223587162538103</v>
+        <v>1.458154504431771</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.465263914553075</v>
+        <v>1.418172259290306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.632380426215744</v>
+        <v>1.648693401451984</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.702001538563826</v>
+        <v>1.62478121381506</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.440856560400761</v>
+        <v>1.400707725036946</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.313801813810462</v>
+        <v>1.742599007334568</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.194778811786925</v>
+        <v>1.73070500184295</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.525297231297306</v>
+        <v>1.387068382358277</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.459966436631732</v>
+        <v>1.751933355602574</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.635879590571944</v>
+        <v>1.420396212857467</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.627647402888396</v>
+        <v>1.709873752351375</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.61563456236531</v>
+        <v>1.524357435898706</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.488171050608879</v>
+        <v>1.612403576630646</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.599846166878841</v>
+        <v>1.479357269333409</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.459622577269623</v>
+        <v>1.516939494808771</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.525278539071895</v>
+        <v>1.309262142272976</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.474127768814848</v>
+        <v>1.888202994062532</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.670364995234776</v>
+        <v>1.700759156903728</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.650996768981811</v>
+        <v>1.588250178416373</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.591604710879542</v>
+        <v>1.633148429863457</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.780495281359585</v>
+        <v>1.366904487656559</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.670860368018609</v>
+        <v>1.783849211582435</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.712393372905139</v>
+        <v>1.445446512279293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.821108053354028</v>
+        <v>1.448379551413878</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.667176068798306</v>
+        <v>1.556277995445141</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.363676877594618</v>
+        <v>1.434952891466289</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.285065630495372</v>
+        <v>1.500217633032767</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.640759149473684</v>
+        <v>1.232222800570798</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.652061058336135</v>
+        <v>1.411425969119914</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.29693644902075</v>
+        <v>1.623807849327523</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.43692520084069</v>
+        <v>1.18627550367867</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.466531883521624</v>
+        <v>1.463897607285096</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.455233625602506</v>
+        <v>1.608621520005411</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.685681551619862</v>
+        <v>1.248785355890772</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.409195552883473</v>
+        <v>1.672263814614646</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.405345614619981</v>
+        <v>1.457523472112018</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.544760680144779</v>
+        <v>1.41239440742308</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.730067201966311</v>
+        <v>1.450866806341682</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.563876464793048</v>
+        <v>1.176147455609051</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.316879592009251</v>
+        <v>1.678775766035061</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.646057049574951</v>
+        <v>1.485585707245305</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.666840431888067</v>
+        <v>1.312742590516911</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1.270233886318727</v>
+        <v>1.432160929459226</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.502011483631332</v>
+        <v>1.27465401538032</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.716961190410851</v>
+        <v>1.513454594944992</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.66466915506666</v>
+        <v>1.372049735330636</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.380089660822967</v>
+        <v>1.949362980172501</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.518276714037904</v>
+        <v>1.504586281084908</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.72240891364631</v>
+        <v>1.649480648123503</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.644025294466378</v>
+        <v>1.447749966764002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.64885173767034</v>
+        <v>1.245032876942447</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.529252273369145</v>
+        <v>1.405704105572555</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.514434901988681</v>
+        <v>1.618029618255651</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.469238141202468</v>
+        <v>1.223548514988557</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.475165857845881</v>
+        <v>1.486622163907048</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.286484929197016</v>
+        <v>1.37126247933473</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.704679525296519</v>
+        <v>1.368554520290677</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.539509770232316</v>
+        <v>1.411330951024801</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.504543131975037</v>
+        <v>1.468745346308582</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.682655921175243</v>
+        <v>1.520377226648822</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.629884456974174</v>
+        <v>1.924112815780943</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.613002534189356</v>
+        <v>1.309242671058264</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.509923434215179</v>
+        <v>1.462657161442775</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.469881558824004</v>
+        <v>1.619751136383874</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.611846280559692</v>
+        <v>1.61365968046979</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.330957067494805</v>
+        <v>1.422452599879424</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.680017304527277</v>
+        <v>1.608059654557912</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.428416633105272</v>
+        <v>1.552543745071651</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.450185248241631</v>
+        <v>1.466342229136147</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.464872621193332</v>
+        <v>1.449878928544523</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.726167119869984</v>
+        <v>1.548867178964373</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.571309958915961</v>
+        <v>1.650810584331319</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.871658036622615</v>
+        <v>1.663386374823887</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.524715517340523</v>
+        <v>1.753060217341484</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.685342930705936</v>
+        <v>1.586991818909135</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.71217608023969</v>
+        <v>1.500624026293277</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.647507059887044</v>
+        <v>1.365875787797384</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.466369875126497</v>
+        <v>1.34323122209006</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.356251306520204</v>
+        <v>1.356638763888615</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.714925941396435</v>
+        <v>1.341778398125944</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.530532151214179</v>
+        <v>1.705094615286287</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.426732381307233</v>
+        <v>1.656312022210291</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.516318679806613</v>
+        <v>1.737743919050373</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.435763689080527</v>
+        <v>1.497584728541182</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.465832174112979</v>
+        <v>1.713505056945813</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.166499661739598</v>
+        <v>1.515173850747314</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.422432072574668</v>
+        <v>1.551403179879474</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.256189280058271</v>
+        <v>1.744451487125336</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.689506272494165</v>
+        <v>1.594812020268174</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.529206998970108</v>
+        <v>1.294902721325708</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.416228941508467</v>
+        <v>1.464915575471937</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.360792196733774</v>
+        <v>1.52410902561676</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.346084830507376</v>
+        <v>1.393501963390972</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.381173006982098</v>
+        <v>1.517895599945604</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.593941445124829</v>
+        <v>1.563564155494937</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.536286652173111</v>
+        <v>1.906184534840546</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.759006457214113</v>
+        <v>1.419742070115936</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.625582375062276</v>
+        <v>1.565685667413766</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.421400035148208</v>
+        <v>1.669858406091498</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.659563145679443</v>
+        <v>1.516508052740398</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.357804227434692</v>
+        <v>1.603704225386617</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.192833377623256</v>
+        <v>1.476537998352781</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.582857162570219</v>
+        <v>1.538868791688076</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.404017777007247</v>
+        <v>1.274713376756887</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.49437527956902</v>
+        <v>1.366954653721002</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.390056416984651</v>
+        <v>1.695876685411609</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.672123272481571</v>
+        <v>1.74275695321905</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.759282276130075</v>
+        <v>1.491953671363348</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.408835698390985</v>
+        <v>1.428387786508674</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.440277255008223</v>
+        <v>1.52298148172838</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.416401401208297</v>
+        <v>1.763164130815916</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.390162218310214</v>
+        <v>1.553996410016384</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.388756238415667</v>
+        <v>1.352376481879372</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.137527810520262</v>
+        <v>1.440763672277086</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.185323694914699</v>
+        <v>1.484643769487219</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.438694033421971</v>
+        <v>1.388069660104764</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.425150335889807</v>
+        <v>1.42527645289102</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.590458781841279</v>
+        <v>1.524029538122882</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.774726210179622</v>
+        <v>1.679034818875242</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.654739646874126</v>
+        <v>1.460882631612094</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.362744869384508</v>
+        <v>1.412281346422653</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.466003137378056</v>
+        <v>1.126894262507731</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.608192439462599</v>
+        <v>1.431487602906096</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.371056418280684</v>
+        <v>1.382847033802316</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.417274332095872</v>
+        <v>1.496294101003309</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.458332461444742</v>
+        <v>1.453083951718957</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.526467173822372</v>
+        <v>1.581369555623262</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.680486332810514</v>
+        <v>1.543629881999124</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.22379125786261</v>
+        <v>1.300198774779894</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.59245993740592</v>
+        <v>1.334437045377189</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.598326665279545</v>
+        <v>1.326452124294063</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.573824921016244</v>
+        <v>1.562546463133591</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.646019921242716</v>
+        <v>1.624995768508645</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.543475548646301</v>
+        <v>1.581463697493668</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.552938648773914</v>
+        <v>1.652041601080878</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.59344085794857</v>
+        <v>1.750739957057852</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.604678304005253</v>
+        <v>1.580667813220296</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.718243889114121</v>
+        <v>1.626772112697795</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.578530001271321</v>
+        <v>1.145493644155156</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.472475647526003</v>
+        <v>1.798804256014026</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.494407858163879</v>
+        <v>1.581427050397752</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.423553487302635</v>
+        <v>1.50320382864886</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.372584203105769</v>
+        <v>1.6698414957271</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.574503727824939</v>
+        <v>1.513648832947761</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.635881357468346</v>
+        <v>1.171416578743038</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.665466346093659</v>
+        <v>1.354227846619449</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.848290209099519</v>
+        <v>1.520779824898081</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.4674614769204</v>
+        <v>1.772389425190779</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.393000350899742</v>
+        <v>1.424520057692059</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.65224046924172</v>
+        <v>1.563983160554348</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.530123263365024</v>
+        <v>1.263944283035165</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.387720553221437</v>
+        <v>1.539722818916445</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.636392992983276</v>
+        <v>1.921875133335366</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.375262652640697</v>
+        <v>1.605060995469835</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.452464011853403</v>
+        <v>1.67361746033102</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.49596314022701</v>
+        <v>1.627325455534633</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.744432041457099</v>
+        <v>1.580488339937074</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.250246694293873</v>
+        <v>1.385463720484669</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.519688976107839</v>
+        <v>1.939781383420547</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.722290506786888</v>
+        <v>1.439053900505304</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.456702001996185</v>
+        <v>1.278035497998168</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.541418553550497</v>
+        <v>1.620181108880776</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.25416777669746</v>
+        <v>1.588376429264643</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.510222243879481</v>
+        <v>1.843084181256005</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.324097053230875</v>
+        <v>1.585422517016051</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.498933190637801</v>
+        <v>1.483564935181497</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.220963960770236</v>
+        <v>1.737406339543682</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.407800805068405</v>
+        <v>1.417489668686081</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.393583360871944</v>
+        <v>1.334431730782021</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.614357873658817</v>
+        <v>1.330154360301789</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.169315689856743</v>
+        <v>1.26133354336998</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.238120603093835</v>
+        <v>1.360861353751162</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.618801808674244</v>
+        <v>1.55929809637391</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.727565477597517</v>
+        <v>1.520451234141354</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.473317244858722</v>
+        <v>1.500474113803859</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.466576736186797</v>
+        <v>1.331951623744725</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.153567320069367</v>
+        <v>1.717619270556968</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.56884981197227</v>
+        <v>1.477550532029034</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.504770295898239</v>
+        <v>1.478785604136622</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.820974075364728</v>
+        <v>1.641918459067854</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.415963860224851</v>
+        <v>1.39397445995528</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.289178770838106</v>
+        <v>1.690991459327068</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.200187360277629</v>
+        <v>1.537402207448178</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.325793979059412</v>
+        <v>1.441579646469498</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.423027706639256</v>
+        <v>1.549821404282321</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.470656459649456</v>
+        <v>1.678337113596488</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.795803979456682</v>
+        <v>1.507578466475511</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.486146625378086</v>
+        <v>1.568978511250677</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.755789472153534</v>
+        <v>1.479450600423218</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.735825360504829</v>
+        <v>1.513433033451735</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.772531252810177</v>
+        <v>1.4603668148759</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.741644077951927</v>
+        <v>1.392082259568075</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.423651152247064</v>
+        <v>1.445432214256592</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.421007848895078</v>
+        <v>1.680297818058555</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.567673065308944</v>
+        <v>1.396056841677305</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.370705721833129</v>
+        <v>1.29222526496419</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.604999529423853</v>
+        <v>1.517351893117085</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.469209741491166</v>
+        <v>1.555406825105985</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.617791005739501</v>
+        <v>1.619492132797619</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.568874700352591</v>
+        <v>1.346508525484355</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.225940199977762</v>
+        <v>1.602065327805898</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.407499398435681</v>
+        <v>1.586555770497366</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.530270379026658</v>
+        <v>1.43293062451179</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.90356200843472</v>
+        <v>1.261192385537456</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.201987739909697</v>
+        <v>1.312626941860548</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.755079654375118</v>
+        <v>1.482750049950543</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.420893954644725</v>
+        <v>1.524347186703385</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.579864218058789</v>
+        <v>1.611794875495772</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.581384530502038</v>
+        <v>1.382127723854871</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.48281019854105</v>
+        <v>1.579326576974664</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.489487038509154</v>
+        <v>1.504542967844686</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.57830029994224</v>
+        <v>1.480077973264625</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.545579660237753</v>
+        <v>1.31347735368509</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.673970470960743</v>
+        <v>1.771198771998452</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.690222184704945</v>
+        <v>1.337559817185042</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.614797271528913</v>
+        <v>1.239975422320728</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.61768604664264</v>
+        <v>1.284788770629352</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.724722501272499</v>
+        <v>1.358897112211531</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.502984000103892</v>
+        <v>1.400651774962598</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/22_localizer.xlsx
+++ b/sequences/22_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.515205007006236</v>
+        <v>1.352734811710377</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.21509860068353</v>
+        <v>1.500919957020999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.701590049413169</v>
+        <v>1.560970223612788</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.61935906231222</v>
+        <v>1.653702486461527</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.437412392498039</v>
+        <v>1.406905457266869</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.369218631528433</v>
+        <v>1.544074999179209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.343423162257717</v>
+        <v>1.278320488640228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.312452086236683</v>
+        <v>1.417313455432069</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.400916340589063</v>
+        <v>1.508692230834316</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.465706331657483</v>
+        <v>1.676026914485421</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.6165989061636</v>
+        <v>1.309354926305492</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.679554942587974</v>
+        <v>1.184550331690197</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.46974117299014</v>
+        <v>1.454447302342295</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.117722488402498</v>
+        <v>1.279217676775863</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.374579302139448</v>
+        <v>1.463716094216373</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.55553424778158</v>
+        <v>1.509384118685996</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.573763217467475</v>
+        <v>1.459340811396829</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.544395066558385</v>
+        <v>1.291047725154228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.699155623002835</v>
+        <v>1.59233168611724</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.465385765731167</v>
+        <v>1.293033900337065</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.577121703214108</v>
+        <v>1.400594366076808</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.52591259307707</v>
+        <v>1.614633880303734</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.265229706486548</v>
+        <v>1.64322385486364</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.600930584840264</v>
+        <v>1.50307876164771</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.598028895531403</v>
+        <v>1.691947275808568</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.507456758767234</v>
+        <v>1.847717449792521</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.244116002401917</v>
+        <v>1.336506936677192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.277797361300732</v>
+        <v>1.398320415037857</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.383769278813971</v>
+        <v>1.501936315681802</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.426364274945288</v>
+        <v>1.639254087454232</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.378248056425445</v>
+        <v>1.382960820293085</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.491777664272455</v>
+        <v>1.767028979728501</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.45407254642914</v>
+        <v>1.616093172459267</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.687639205557582</v>
+        <v>1.458107363419226</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.710937157064352</v>
+        <v>1.541118256648991</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.371642269649449</v>
+        <v>1.182429368720599</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.568309177192516</v>
+        <v>1.546036544295305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.458154504431771</v>
+        <v>1.796450518565662</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.418172259290306</v>
+        <v>1.256311611045549</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.648693401451984</v>
+        <v>1.512296138581605</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.62478121381506</v>
+        <v>1.49961455251202</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.400707725036946</v>
+        <v>1.625766005382508</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.742599007334568</v>
+        <v>1.471440330029068</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.73070500184295</v>
+        <v>1.434957803357126</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.387068382358277</v>
+        <v>1.76786199815928</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.751933355602574</v>
+        <v>1.628289134014178</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.420396212857467</v>
+        <v>1.374759478169575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.709873752351375</v>
+        <v>1.599032985553029</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.524357435898706</v>
+        <v>1.437715402655046</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.612403576630646</v>
+        <v>1.350791214574217</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.479357269333409</v>
+        <v>1.470618896632619</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.516939494808771</v>
+        <v>1.655624515972743</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.309262142272976</v>
+        <v>1.407373211604269</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.888202994062532</v>
+        <v>1.429694895035579</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.700759156903728</v>
+        <v>1.334932835403659</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.588250178416373</v>
+        <v>1.349287555630476</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.633148429863457</v>
+        <v>1.3302596279319</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.366904487656559</v>
+        <v>1.5754325721484</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.783849211582435</v>
+        <v>1.321535439037567</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.445446512279293</v>
+        <v>1.429307325281371</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.448379551413878</v>
+        <v>1.516066476963529</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.556277995445141</v>
+        <v>1.463062742344266</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.434952891466289</v>
+        <v>1.656138088924101</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.500217633032767</v>
+        <v>1.446419600451657</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.232222800570798</v>
+        <v>1.651226897219826</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.411425969119914</v>
+        <v>1.190516796760705</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.623807849327523</v>
+        <v>1.382403584434772</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.18627550367867</v>
+        <v>1.340298655026805</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.463897607285096</v>
+        <v>1.534176032349237</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.608621520005411</v>
+        <v>1.380436994360434</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.248785355890772</v>
+        <v>1.602610713489046</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.672263814614646</v>
+        <v>1.176015026946124</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.457523472112018</v>
+        <v>1.432689263671288</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.41239440742308</v>
+        <v>1.473021408905107</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.450866806341682</v>
+        <v>1.625314877617981</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.176147455609051</v>
+        <v>1.608304186265536</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.678775766035061</v>
+        <v>1.483544294493292</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.485585707245305</v>
+        <v>1.268134899036649</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.312742590516911</v>
+        <v>1.519289191985979</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.432160929459226</v>
+        <v>1.472019390482166</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.27465401538032</v>
+        <v>1.452050635166138</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.513454594944992</v>
+        <v>1.421870197476276</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.372049735330636</v>
+        <v>1.459504020991226</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.949362980172501</v>
+        <v>1.563074827393656</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.504586281084908</v>
+        <v>1.587082187343911</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.649480648123503</v>
+        <v>1.53134479023538</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.447749966764002</v>
+        <v>1.378283964921429</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.245032876942447</v>
+        <v>1.313322410788893</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1.405704105572555</v>
+        <v>1.500400284578478</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.618029618255651</v>
+        <v>1.288976386322466</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.223548514988557</v>
+        <v>1.257467809551808</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.486622163907048</v>
+        <v>1.651085107824704</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.37126247933473</v>
+        <v>1.238842447919004</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.368554520290677</v>
+        <v>1.532746725810853</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.411330951024801</v>
+        <v>1.473515672514152</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.468745346308582</v>
+        <v>1.536163946786391</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.520377226648822</v>
+        <v>1.825769616382346</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.924112815780943</v>
+        <v>1.330766452519336</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.309242671058264</v>
+        <v>1.620420437582539</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.462657161442775</v>
+        <v>1.357514213547988</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.619751136383874</v>
+        <v>1.257957727705636</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.61365968046979</v>
+        <v>1.762713527320469</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.422452599879424</v>
+        <v>1.489922412620713</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.608059654557912</v>
+        <v>1.571645170411083</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.552543745071651</v>
+        <v>1.354456572262276</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.466342229136147</v>
+        <v>1.218352458834079</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.449878928544523</v>
+        <v>1.639957134638488</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.548867178964373</v>
+        <v>1.466911672290257</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.650810584331319</v>
+        <v>1.821525074654688</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.663386374823887</v>
+        <v>1.478474264320092</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.753060217341484</v>
+        <v>1.478215912845341</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.586991818909135</v>
+        <v>1.428025423686346</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.500624026293277</v>
+        <v>1.763473151225309</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.365875787797384</v>
+        <v>1.507813380415403</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.34323122209006</v>
+        <v>1.7751843666543</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.356638763888615</v>
+        <v>1.24964507669313</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.341778398125944</v>
+        <v>1.577601785885361</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.705094615286287</v>
+        <v>1.514915254331584</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.656312022210291</v>
+        <v>1.527949921097509</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.737743919050373</v>
+        <v>1.686774125930946</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.497584728541182</v>
+        <v>1.25281697313976</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.713505056945813</v>
+        <v>1.713398256252775</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.515173850747314</v>
+        <v>1.42771059234683</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.551403179879474</v>
+        <v>1.388262299036675</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.744451487125336</v>
+        <v>1.667460900775581</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.594812020268174</v>
+        <v>1.427766363694884</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.294902721325708</v>
+        <v>1.450764091335694</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.464915575471937</v>
+        <v>1.69074610451025</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.52410902561676</v>
+        <v>1.561578420802988</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.393501963390972</v>
+        <v>1.714563112137732</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.517895599945604</v>
+        <v>1.744901785456049</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.563564155494937</v>
+        <v>1.526408484097538</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.906184534840546</v>
+        <v>1.769926942014902</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.419742070115936</v>
+        <v>1.175837429862893</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.565685667413766</v>
+        <v>1.688074085747018</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.669858406091498</v>
+        <v>1.583067647193892</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.516508052740398</v>
+        <v>1.339523205897438</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.603704225386617</v>
+        <v>1.660649960439968</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.476537998352781</v>
+        <v>1.480618810763334</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.538868791688076</v>
+        <v>1.54249505079182</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.274713376756887</v>
+        <v>1.534688768547107</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.366954653721002</v>
+        <v>1.542954637264848</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.695876685411609</v>
+        <v>1.414452342518793</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.74275695321905</v>
+        <v>1.421201740606525</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.491953671363348</v>
+        <v>1.320649295265891</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.428387786508674</v>
+        <v>1.51299776443905</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.52298148172838</v>
+        <v>1.726135454228336</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.763164130815916</v>
+        <v>1.151712890868943</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.553996410016384</v>
+        <v>1.507819280544421</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.352376481879372</v>
+        <v>1.598766651781525</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.440763672277086</v>
+        <v>1.708232669369963</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.484643769487219</v>
+        <v>1.569313351922218</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.388069660104764</v>
+        <v>1.616020901490672</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.42527645289102</v>
+        <v>1.545132512281815</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.524029538122882</v>
+        <v>1.540189047076867</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.679034818875242</v>
+        <v>1.634021044857803</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.460882631612094</v>
+        <v>1.57632707857241</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.412281346422653</v>
+        <v>1.452079397367207</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.126894262507731</v>
+        <v>1.547140361111046</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.431487602906096</v>
+        <v>1.605827011650608</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.382847033802316</v>
+        <v>1.344211895806431</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.496294101003309</v>
+        <v>1.532489788825363</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.453083951718957</v>
+        <v>1.756661723238494</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.581369555623262</v>
+        <v>1.146756624760448</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.543629881999124</v>
+        <v>1.574121877844599</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.300198774779894</v>
+        <v>1.763122835414448</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.334437045377189</v>
+        <v>1.437252727353479</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.326452124294063</v>
+        <v>1.322619051252603</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.562546463133591</v>
+        <v>1.578816685480969</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.624995768508645</v>
+        <v>1.336611592395914</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.581463697493668</v>
+        <v>1.626255849835973</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.652041601080878</v>
+        <v>1.466126713172321</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.750739957057852</v>
+        <v>1.508077283713406</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.580667813220296</v>
+        <v>1.729737087405747</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.626772112697795</v>
+        <v>1.45452806649265</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.145493644155156</v>
+        <v>1.46114104273628</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.798804256014026</v>
+        <v>1.480562639533176</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.581427050397752</v>
+        <v>1.507826015482746</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.50320382864886</v>
+        <v>1.287936233004443</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.6698414957271</v>
+        <v>1.395574979128662</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.513648832947761</v>
+        <v>1.42796517001325</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.171416578743038</v>
+        <v>1.521168200198512</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.354227846619449</v>
+        <v>1.670009419469808</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.520779824898081</v>
+        <v>1.379332409494944</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.772389425190779</v>
+        <v>1.837635896256604</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.424520057692059</v>
+        <v>1.618180933212224</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.563983160554348</v>
+        <v>1.427970352721916</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.263944283035165</v>
+        <v>1.507100178896844</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.539722818916445</v>
+        <v>1.422265131615699</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.921875133335366</v>
+        <v>1.603514593963315</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.605060995469835</v>
+        <v>1.428472335463578</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.67361746033102</v>
+        <v>1.612878322277727</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.627325455534633</v>
+        <v>1.43690215042973</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.580488339937074</v>
+        <v>1.529097382809131</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.385463720484669</v>
+        <v>1.356156030339613</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.939781383420547</v>
+        <v>1.542310887708114</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.439053900505304</v>
+        <v>1.570159450924842</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.278035497998168</v>
+        <v>1.384222694107306</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.620181108880776</v>
+        <v>1.503331123572635</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.588376429264643</v>
+        <v>1.350939708683538</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.843084181256005</v>
+        <v>1.636227683568045</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.585422517016051</v>
+        <v>1.208707760441338</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.483564935181497</v>
+        <v>1.717478381612032</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.737406339543682</v>
+        <v>1.60815004285552</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.417489668686081</v>
+        <v>1.573166766820713</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.334431730782021</v>
+        <v>1.596943344008505</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.330154360301789</v>
+        <v>1.517385550017756</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.26133354336998</v>
+        <v>1.242280771239199</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.360861353751162</v>
+        <v>1.679709257530239</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.55929809637391</v>
+        <v>1.649391569283954</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.520451234141354</v>
+        <v>1.487084131720129</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.500474113803859</v>
+        <v>1.669282730280019</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.331951623744725</v>
+        <v>1.647928005448895</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.717619270556968</v>
+        <v>1.520371519893216</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.477550532029034</v>
+        <v>1.699824998874655</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.478785604136622</v>
+        <v>1.628350707606851</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.641918459067854</v>
+        <v>1.654492391745265</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.39397445995528</v>
+        <v>1.506629817408701</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.690991459327068</v>
+        <v>1.610383477158543</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.537402207448178</v>
+        <v>1.29928573648319</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.441579646469498</v>
+        <v>1.775553789421562</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.549821404282321</v>
+        <v>1.542659613030226</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.678337113596488</v>
+        <v>1.375437258251446</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.507578466475511</v>
+        <v>1.611070169466309</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.568978511250677</v>
+        <v>1.479055298943793</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.479450600423218</v>
+        <v>1.590385315646626</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.513433033451735</v>
+        <v>1.814781059976497</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.4603668148759</v>
+        <v>1.643384846063095</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.392082259568075</v>
+        <v>1.398481480268748</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.445432214256592</v>
+        <v>1.33810973948501</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.680297818058555</v>
+        <v>1.706104525522421</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.396056841677305</v>
+        <v>1.554124903349437</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>1.29222526496419</v>
+        <v>1.5158137702212</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.517351893117085</v>
+        <v>1.715315377087363</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.555406825105985</v>
+        <v>1.381648651057905</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.619492132797619</v>
+        <v>1.456086391765073</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.346508525484355</v>
+        <v>1.544922351632499</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.602065327805898</v>
+        <v>1.361158485221972</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.586555770497366</v>
+        <v>1.755035281926397</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.43293062451179</v>
+        <v>1.425912701275402</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.261192385537456</v>
+        <v>1.570106118011735</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.312626941860548</v>
+        <v>1.425579962211005</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.482750049950543</v>
+        <v>1.644450553480702</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.524347186703385</v>
+        <v>1.465589661307378</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.611794875495772</v>
+        <v>1.875674780666936</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.382127723854871</v>
+        <v>1.332193655989636</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.579326576974664</v>
+        <v>1.462087139277475</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.504542967844686</v>
+        <v>1.409013501168754</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.480077973264625</v>
+        <v>1.601996841016903</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.31347735368509</v>
+        <v>1.418843498673021</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.771198771998452</v>
+        <v>1.747718201989048</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.337559817185042</v>
+        <v>1.732678411551112</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.239975422320728</v>
+        <v>1.520681066013718</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.284788770629352</v>
+        <v>1.399423257296323</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.358897112211531</v>
+        <v>1.399274860605707</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.400651774962598</v>
+        <v>1.240079464227975</v>
       </c>
     </row>
   </sheetData>
